--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307069.1720073214</v>
+        <v>-309972.2543565491</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673444</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>12.46326292246986</v>
       </c>
       <c r="G5" t="n">
         <v>14.14993519808116</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.587217180758424</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,73 +975,73 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>14.14993519808115</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="V6" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>14.14993519808115</v>
+        <v>12.46326292246987</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.46326292246987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>12.46326292246987</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>14.14993519808115</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>14.14993519808115</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12.46326292246987</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G8" t="n">
-        <v>13.09783323005805</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H8" t="n">
-        <v>133.8333590606437</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>180.7176861318883</v>
       </c>
       <c r="V9" t="n">
-        <v>176.0166538343223</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>96.4101456471757</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>187.5255871663199</v>
+        <v>74.0588675132944</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>224.8516549283905</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>360.5594620028774</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>120.6353666620238</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4263234899688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>4.561362386521694</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>286.000059623285</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9.173801452117715</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.03501458344412</v>
+        <v>90.03501458344417</v>
       </c>
       <c r="T14" t="n">
         <v>200.2387095411028</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>8.293090935371367</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.5497654603431</v>
       </c>
       <c r="H15" t="n">
-        <v>85.25368436932878</v>
+        <v>85.25368436932879</v>
       </c>
       <c r="I15" t="n">
-        <v>3.333999002149724</v>
+        <v>3.333999002149767</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1783,7 @@
         <v>141.4029956644091</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.2284798136374</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>71.98012075791726</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.1986563109095</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.9380606795859</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1912736703374</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>170.056996606745</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>363.0377415766511</v>
+        <v>363.037741576651</v>
       </c>
       <c r="C17" t="n">
-        <v>280.3743151177505</v>
+        <v>345.576791684178</v>
       </c>
       <c r="D17" t="n">
         <v>334.9869415338534</v>
       </c>
       <c r="E17" t="n">
-        <v>362.2342699854323</v>
+        <v>362.2342699854322</v>
       </c>
       <c r="F17" t="n">
         <v>387.1799456548819</v>
       </c>
       <c r="G17" t="n">
-        <v>390.3851319975738</v>
+        <v>390.3851319975737</v>
       </c>
       <c r="H17" t="n">
-        <v>266.3039595364555</v>
+        <v>266.3039595364554</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.33891449661461</v>
+        <v>70.33891449661456</v>
       </c>
       <c r="T17" t="n">
-        <v>180.5426094542733</v>
+        <v>115.3401328878459</v>
       </c>
       <c r="U17" t="n">
         <v>231.2318323865484</v>
       </c>
       <c r="V17" t="n">
-        <v>308.0561583833054</v>
+        <v>308.0561583833053</v>
       </c>
       <c r="W17" t="n">
-        <v>329.5448686305835</v>
+        <v>329.5448686305834</v>
       </c>
       <c r="X17" t="n">
         <v>350.0350005916395</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.5418385692241</v>
+        <v>366.541838569224</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.25368436932878</v>
       </c>
       <c r="I18" t="n">
-        <v>3.333999002149724</v>
+        <v>3.333999002149739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>160.1358800951078</v>
+        <v>160.1358800951077</v>
       </c>
       <c r="C19" t="n">
         <v>147.5507210117983</v>
       </c>
       <c r="D19" t="n">
-        <v>128.9193729313828</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>126.7378625597397</v>
+        <v>126.7378625597396</v>
       </c>
       <c r="F19" t="n">
-        <v>87.92784877124569</v>
+        <v>125.7249479361017</v>
       </c>
       <c r="G19" t="n">
-        <v>145.9526916921473</v>
+        <v>145.9526916921472</v>
       </c>
       <c r="H19" t="n">
-        <v>121.7068955775796</v>
+        <v>121.7068955775795</v>
       </c>
       <c r="I19" t="n">
-        <v>65.3184065410987</v>
+        <v>2.711145676506801</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>52.28402067108775</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>163.50255622408</v>
+        <v>163.5025562240799</v>
       </c>
       <c r="T19" t="n">
-        <v>198.2419605927564</v>
+        <v>198.2419605927563</v>
       </c>
       <c r="U19" t="n">
         <v>266.4951735835078</v>
       </c>
       <c r="V19" t="n">
-        <v>232.4415432369985</v>
+        <v>232.4415432369984</v>
       </c>
       <c r="W19" t="n">
-        <v>266.8268982497615</v>
+        <v>266.8268982497614</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>206.0135553022076</v>
       </c>
       <c r="Y19" t="n">
-        <v>198.8885532652653</v>
+        <v>198.8885532652652</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>363.0377415766511</v>
+        <v>363.037741576651</v>
       </c>
       <c r="C20" t="n">
-        <v>280.3743151177487</v>
+        <v>345.576791684178</v>
       </c>
       <c r="D20" t="n">
         <v>334.9869415338534</v>
       </c>
       <c r="E20" t="n">
-        <v>362.2342699854323</v>
+        <v>362.2342699854322</v>
       </c>
       <c r="F20" t="n">
         <v>387.1799456548819</v>
       </c>
       <c r="G20" t="n">
-        <v>390.3851319975738</v>
+        <v>390.3851319975737</v>
       </c>
       <c r="H20" t="n">
-        <v>266.3039595364555</v>
+        <v>266.3039595364554</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.33891449661462</v>
+        <v>70.33891449661456</v>
       </c>
       <c r="T20" t="n">
-        <v>180.5426094542733</v>
+        <v>115.3401328878466</v>
       </c>
       <c r="U20" t="n">
         <v>231.2318323865484</v>
       </c>
       <c r="V20" t="n">
-        <v>308.0561583833054</v>
+        <v>308.0561583833053</v>
       </c>
       <c r="W20" t="n">
-        <v>329.5448686305835</v>
+        <v>329.5448686305834</v>
       </c>
       <c r="X20" t="n">
         <v>350.0350005916395</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.5418385692241</v>
+        <v>366.541838569224</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>160.1358800951078</v>
+        <v>160.1358800951077</v>
       </c>
       <c r="C22" t="n">
         <v>147.5507210117983</v>
@@ -2245,19 +2245,19 @@
         <v>128.9193729313828</v>
       </c>
       <c r="E22" t="n">
-        <v>126.7378625597397</v>
+        <v>126.7378625597396</v>
       </c>
       <c r="F22" t="n">
         <v>125.7249479361017</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.9526916921472</v>
       </c>
       <c r="H22" t="n">
-        <v>121.7068955775796</v>
+        <v>121.7068955775795</v>
       </c>
       <c r="I22" t="n">
-        <v>19.74446443727042</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>163.50255622408</v>
+        <v>163.5025562240799</v>
       </c>
       <c r="T22" t="n">
-        <v>198.2419605927564</v>
+        <v>198.2419605927563</v>
       </c>
       <c r="U22" t="n">
         <v>266.4951735835078</v>
       </c>
       <c r="V22" t="n">
-        <v>232.4415432369985</v>
+        <v>232.4415432369984</v>
       </c>
       <c r="W22" t="n">
-        <v>266.8268982497615</v>
+        <v>266.8268982497614</v>
       </c>
       <c r="X22" t="n">
         <v>206.0135553022076</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.8885532652653</v>
+        <v>72.68032601038851</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>363.0377415766511</v>
+        <v>363.037741576651</v>
       </c>
       <c r="C23" t="n">
         <v>345.576791684178</v>
@@ -2324,16 +2324,16 @@
         <v>334.9869415338534</v>
       </c>
       <c r="E23" t="n">
-        <v>362.2342699854323</v>
+        <v>362.2342699854322</v>
       </c>
       <c r="F23" t="n">
         <v>387.1799456548819</v>
       </c>
       <c r="G23" t="n">
-        <v>390.3851319975738</v>
+        <v>390.3851319975737</v>
       </c>
       <c r="H23" t="n">
-        <v>266.3039595364555</v>
+        <v>266.3039595364554</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.33891449661462</v>
+        <v>70.33891449661456</v>
       </c>
       <c r="T23" t="n">
         <v>180.5426094542733</v>
@@ -2375,16 +2375,16 @@
         <v>231.2318323865484</v>
       </c>
       <c r="V23" t="n">
-        <v>308.0561583833054</v>
+        <v>308.0561583833053</v>
       </c>
       <c r="W23" t="n">
-        <v>329.5448686305835</v>
+        <v>329.5448686305834</v>
       </c>
       <c r="X23" t="n">
         <v>350.0350005916395</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.5418385692241</v>
+        <v>366.541838569224</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>160.1358800951078</v>
+        <v>160.1358800951077</v>
       </c>
       <c r="C25" t="n">
         <v>147.5507210117983</v>
@@ -2482,19 +2482,19 @@
         <v>128.9193729313828</v>
       </c>
       <c r="E25" t="n">
-        <v>4.634103670255012</v>
+        <v>126.7378625597396</v>
       </c>
       <c r="F25" t="n">
         <v>125.7249479361017</v>
       </c>
       <c r="G25" t="n">
-        <v>145.9526916921473</v>
+        <v>145.9526916921472</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>65.31840654109871</v>
+        <v>65.31840654109865</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>52.28402067108777</v>
+        <v>52.28402067108772</v>
       </c>
       <c r="S25" t="n">
-        <v>163.50255622408</v>
+        <v>41.39879733459629</v>
       </c>
       <c r="T25" t="n">
-        <v>198.2419605927564</v>
+        <v>198.2419605927563</v>
       </c>
       <c r="U25" t="n">
         <v>266.4951735835078</v>
       </c>
       <c r="V25" t="n">
-        <v>232.4415432369985</v>
+        <v>232.4415432369984</v>
       </c>
       <c r="W25" t="n">
-        <v>266.8268982497615</v>
+        <v>266.8268982497614</v>
       </c>
       <c r="X25" t="n">
         <v>206.0135553022076</v>
       </c>
       <c r="Y25" t="n">
-        <v>198.8885532652653</v>
+        <v>198.8885532652652</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>363.0377415766511</v>
+        <v>363.037741576651</v>
       </c>
       <c r="C26" t="n">
         <v>345.576791684178</v>
@@ -2561,16 +2561,16 @@
         <v>334.9869415338534</v>
       </c>
       <c r="E26" t="n">
-        <v>362.2342699854323</v>
+        <v>362.2342699854322</v>
       </c>
       <c r="F26" t="n">
         <v>387.1799456548819</v>
       </c>
       <c r="G26" t="n">
-        <v>390.3851319975738</v>
+        <v>390.3851319975737</v>
       </c>
       <c r="H26" t="n">
-        <v>266.3039595364555</v>
+        <v>266.3039595364554</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.33891449661462</v>
+        <v>70.33891449661456</v>
       </c>
       <c r="T26" t="n">
         <v>180.5426094542733</v>
@@ -2612,16 +2612,16 @@
         <v>231.2318323865484</v>
       </c>
       <c r="V26" t="n">
-        <v>308.0561583833054</v>
+        <v>308.0561583833053</v>
       </c>
       <c r="W26" t="n">
-        <v>329.5448686305835</v>
+        <v>329.5448686305834</v>
       </c>
       <c r="X26" t="n">
         <v>350.0350005916395</v>
       </c>
       <c r="Y26" t="n">
-        <v>366.5418385692241</v>
+        <v>366.541838569224</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160.1358800951078</v>
+        <v>160.1358800951077</v>
       </c>
       <c r="C28" t="n">
         <v>147.5507210117983</v>
       </c>
       <c r="D28" t="n">
-        <v>10.83366640042026</v>
+        <v>128.9193729313828</v>
       </c>
       <c r="E28" t="n">
-        <v>126.7378625597397</v>
+        <v>126.7378625597396</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>125.7249479361017</v>
       </c>
       <c r="G28" t="n">
-        <v>145.9526916921473</v>
+        <v>134.583580462083</v>
       </c>
       <c r="H28" t="n">
-        <v>121.7068955775796</v>
+        <v>121.7068955775795</v>
       </c>
       <c r="I28" t="n">
-        <v>65.31840654109871</v>
+        <v>65.31840654109865</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>52.28402067108777</v>
+        <v>52.28402067108772</v>
       </c>
       <c r="S28" t="n">
-        <v>163.50255622408</v>
+        <v>163.5025562240799</v>
       </c>
       <c r="T28" t="n">
-        <v>198.2419605927564</v>
+        <v>198.2419605927563</v>
       </c>
       <c r="U28" t="n">
         <v>266.4951735835078</v>
       </c>
       <c r="V28" t="n">
-        <v>232.4415432369985</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>266.8268982497615</v>
+        <v>266.8268982497614</v>
       </c>
       <c r="X28" t="n">
         <v>206.0135553022076</v>
       </c>
       <c r="Y28" t="n">
-        <v>198.8885532652653</v>
+        <v>198.8885532652652</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>363.0377415766511</v>
+        <v>363.037741576651</v>
       </c>
       <c r="C29" t="n">
         <v>345.576791684178</v>
@@ -2798,16 +2798,16 @@
         <v>334.9869415338534</v>
       </c>
       <c r="E29" t="n">
-        <v>362.2342699854323</v>
+        <v>362.2342699854322</v>
       </c>
       <c r="F29" t="n">
         <v>387.1799456548819</v>
       </c>
       <c r="G29" t="n">
-        <v>390.3851319975738</v>
+        <v>390.3851319975737</v>
       </c>
       <c r="H29" t="n">
-        <v>266.3039595364555</v>
+        <v>266.3039595364554</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.33891449661462</v>
+        <v>70.33891449661456</v>
       </c>
       <c r="T29" t="n">
         <v>180.5426094542733</v>
@@ -2849,16 +2849,16 @@
         <v>231.2318323865484</v>
       </c>
       <c r="V29" t="n">
-        <v>308.0561583833054</v>
+        <v>308.0561583833053</v>
       </c>
       <c r="W29" t="n">
-        <v>329.5448686305835</v>
+        <v>329.5448686305834</v>
       </c>
       <c r="X29" t="n">
         <v>350.0350005916395</v>
       </c>
       <c r="Y29" t="n">
-        <v>366.5418385692241</v>
+        <v>366.541838569224</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>160.1358800951078</v>
+        <v>160.1358800951077</v>
       </c>
       <c r="C31" t="n">
         <v>147.5507210117983</v>
       </c>
       <c r="D31" t="n">
-        <v>128.9193729313828</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>8.652156028777272</v>
+        <v>126.7378625597396</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>125.7249479361017</v>
       </c>
       <c r="G31" t="n">
-        <v>145.9526916921473</v>
+        <v>145.9526916921472</v>
       </c>
       <c r="H31" t="n">
-        <v>121.7068955775796</v>
+        <v>121.7068955775795</v>
       </c>
       <c r="I31" t="n">
-        <v>65.31840654109871</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>52.28402067108777</v>
+        <v>2.711145676506576</v>
       </c>
       <c r="S31" t="n">
-        <v>163.50255622408</v>
+        <v>163.5025562240799</v>
       </c>
       <c r="T31" t="n">
-        <v>198.2419605927564</v>
+        <v>198.2419605927563</v>
       </c>
       <c r="U31" t="n">
         <v>266.4951735835078</v>
       </c>
       <c r="V31" t="n">
-        <v>232.4415432369985</v>
+        <v>232.4415432369984</v>
       </c>
       <c r="W31" t="n">
-        <v>266.8268982497615</v>
+        <v>266.8268982497614</v>
       </c>
       <c r="X31" t="n">
         <v>206.0135553022076</v>
       </c>
       <c r="Y31" t="n">
-        <v>198.8885532652653</v>
+        <v>198.8885532652652</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>358.3804218219062</v>
+        <v>358.3804218219061</v>
       </c>
       <c r="C32" t="n">
         <v>340.9194719294331</v>
@@ -3035,16 +3035,16 @@
         <v>330.3296217791085</v>
       </c>
       <c r="E32" t="n">
-        <v>357.5769502306874</v>
+        <v>357.5769502306873</v>
       </c>
       <c r="F32" t="n">
         <v>382.522625900137</v>
       </c>
       <c r="G32" t="n">
-        <v>385.7278122428289</v>
+        <v>385.7278122428288</v>
       </c>
       <c r="H32" t="n">
-        <v>261.6466397817106</v>
+        <v>261.6466397817105</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.68159474186973</v>
+        <v>65.68159474186967</v>
       </c>
       <c r="T32" t="n">
         <v>175.8852896995284</v>
@@ -3086,16 +3086,16 @@
         <v>226.5745126318035</v>
       </c>
       <c r="V32" t="n">
-        <v>303.3988386285605</v>
+        <v>303.3988386285604</v>
       </c>
       <c r="W32" t="n">
-        <v>324.8875488758386</v>
+        <v>324.8875488758385</v>
       </c>
       <c r="X32" t="n">
         <v>345.3776808368946</v>
       </c>
       <c r="Y32" t="n">
-        <v>361.8845188144792</v>
+        <v>361.8845188144791</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.4785603403629</v>
+        <v>155.4785603403628</v>
       </c>
       <c r="C34" t="n">
         <v>142.8934012570534</v>
@@ -3193,19 +3193,19 @@
         <v>124.2620531766379</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>122.0805428049947</v>
       </c>
       <c r="F34" t="n">
-        <v>110.3717453282089</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2953719374024</v>
+        <v>141.2953719374023</v>
       </c>
       <c r="H34" t="n">
-        <v>117.0495758228347</v>
+        <v>117.0495758228346</v>
       </c>
       <c r="I34" t="n">
-        <v>60.66108678635383</v>
+        <v>60.66108678635376</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.62670091634289</v>
+        <v>47.62670091634283</v>
       </c>
       <c r="S34" t="n">
-        <v>158.8452364693351</v>
+        <v>158.845236469335</v>
       </c>
       <c r="T34" t="n">
-        <v>193.5846408380115</v>
+        <v>193.5846408380114</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8378538287629</v>
+        <v>250.129056351979</v>
       </c>
       <c r="V34" t="n">
-        <v>227.7842234822536</v>
+        <v>227.7842234822535</v>
       </c>
       <c r="W34" t="n">
-        <v>262.1695784950166</v>
+        <v>262.1695784950165</v>
       </c>
       <c r="X34" t="n">
         <v>201.3562355474627</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.2312335105204</v>
+        <v>194.2312335105203</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>358.3804218219062</v>
+        <v>358.3804218219061</v>
       </c>
       <c r="C35" t="n">
-        <v>340.9194719294332</v>
+        <v>340.9194719294331</v>
       </c>
       <c r="D35" t="n">
-        <v>330.3296217791086</v>
+        <v>330.3296217791085</v>
       </c>
       <c r="E35" t="n">
-        <v>357.5769502306874</v>
+        <v>357.5769502306873</v>
       </c>
       <c r="F35" t="n">
-        <v>382.5226259001371</v>
+        <v>382.522625900137</v>
       </c>
       <c r="G35" t="n">
-        <v>385.7278122428289</v>
+        <v>385.7278122428288</v>
       </c>
       <c r="H35" t="n">
-        <v>261.6466397817106</v>
+        <v>261.6466397817105</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>65.6815947418698</v>
+        <v>65.68159474186967</v>
       </c>
       <c r="T35" t="n">
-        <v>175.8852896995285</v>
+        <v>175.8852896995284</v>
       </c>
       <c r="U35" t="n">
-        <v>226.5745126318036</v>
+        <v>226.5745126318035</v>
       </c>
       <c r="V35" t="n">
-        <v>303.3988386285606</v>
+        <v>303.3988386285604</v>
       </c>
       <c r="W35" t="n">
-        <v>324.8875488758387</v>
+        <v>324.8875488758385</v>
       </c>
       <c r="X35" t="n">
-        <v>345.3776808368947</v>
+        <v>345.3776808368946</v>
       </c>
       <c r="Y35" t="n">
-        <v>361.8845188144792</v>
+        <v>361.8845188144791</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.4785603403629</v>
+        <v>155.4785603403628</v>
       </c>
       <c r="C37" t="n">
-        <v>142.8934012570535</v>
+        <v>142.8934012570534</v>
       </c>
       <c r="D37" t="n">
-        <v>124.262053176638</v>
+        <v>124.2620531766379</v>
       </c>
       <c r="E37" t="n">
-        <v>122.0805428049948</v>
+        <v>49.96520393320723</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>121.0676281813568</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2953719374025</v>
+        <v>141.2953719374023</v>
       </c>
       <c r="H37" t="n">
-        <v>117.0495758228348</v>
+        <v>117.0495758228346</v>
       </c>
       <c r="I37" t="n">
-        <v>48.95228930956667</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.62670091634295</v>
+        <v>47.62670091634283</v>
       </c>
       <c r="S37" t="n">
-        <v>158.8452364693351</v>
+        <v>158.845236469335</v>
       </c>
       <c r="T37" t="n">
-        <v>193.5846408380115</v>
+        <v>193.5846408380114</v>
       </c>
       <c r="U37" t="n">
-        <v>261.837853828763</v>
+        <v>261.8378538287629</v>
       </c>
       <c r="V37" t="n">
-        <v>227.7842234822537</v>
+        <v>227.7842234822535</v>
       </c>
       <c r="W37" t="n">
-        <v>262.1695784950167</v>
+        <v>262.1695784950165</v>
       </c>
       <c r="X37" t="n">
-        <v>201.3562355474628</v>
+        <v>201.3562355474627</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.2312335105204</v>
+        <v>194.2312335105203</v>
       </c>
     </row>
     <row r="38">
@@ -3503,16 +3503,16 @@
         <v>358.3804218219062</v>
       </c>
       <c r="C38" t="n">
-        <v>340.9194719294332</v>
+        <v>340.9194719294331</v>
       </c>
       <c r="D38" t="n">
-        <v>330.3296217791086</v>
+        <v>330.3296217791085</v>
       </c>
       <c r="E38" t="n">
         <v>357.5769502306874</v>
       </c>
       <c r="F38" t="n">
-        <v>382.5226259001371</v>
+        <v>382.522625900137</v>
       </c>
       <c r="G38" t="n">
         <v>385.7278122428289</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>65.68159474186979</v>
+        <v>65.68159474186973</v>
       </c>
       <c r="T38" t="n">
-        <v>175.8852896995285</v>
+        <v>175.8852896995284</v>
       </c>
       <c r="U38" t="n">
-        <v>226.5745126318036</v>
+        <v>226.5745126318035</v>
       </c>
       <c r="V38" t="n">
-        <v>303.3988386285606</v>
+        <v>303.3988386285605</v>
       </c>
       <c r="W38" t="n">
-        <v>324.8875488758387</v>
+        <v>324.8875488758386</v>
       </c>
       <c r="X38" t="n">
-        <v>345.3776808368947</v>
+        <v>345.3776808368946</v>
       </c>
       <c r="Y38" t="n">
         <v>361.8845188144792</v>
@@ -3661,25 +3661,25 @@
         <v>155.4785603403629</v>
       </c>
       <c r="C40" t="n">
-        <v>142.8934012570535</v>
+        <v>132.1975184039065</v>
       </c>
       <c r="D40" t="n">
-        <v>124.262053176638</v>
+        <v>124.2620531766379</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>110.3717453282082</v>
+        <v>121.0676281813568</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2953719374025</v>
+        <v>141.2953719374024</v>
       </c>
       <c r="H40" t="n">
-        <v>117.0495758228348</v>
+        <v>117.0495758228347</v>
       </c>
       <c r="I40" t="n">
-        <v>60.66108678635388</v>
+        <v>60.66108678635382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.62670091634294</v>
+        <v>47.62670091634288</v>
       </c>
       <c r="S40" t="n">
         <v>158.8452364693351</v>
@@ -3715,16 +3715,16 @@
         <v>193.5846408380115</v>
       </c>
       <c r="U40" t="n">
-        <v>261.837853828763</v>
+        <v>261.8378538287629</v>
       </c>
       <c r="V40" t="n">
-        <v>227.7842234822537</v>
+        <v>227.7842234822536</v>
       </c>
       <c r="W40" t="n">
-        <v>262.1695784950167</v>
+        <v>262.1695784950166</v>
       </c>
       <c r="X40" t="n">
-        <v>201.3562355474628</v>
+        <v>201.3562355474627</v>
       </c>
       <c r="Y40" t="n">
         <v>194.2312335105204</v>
@@ -3740,16 +3740,16 @@
         <v>358.3804218219062</v>
       </c>
       <c r="C41" t="n">
-        <v>340.9194719294332</v>
+        <v>340.9194719294331</v>
       </c>
       <c r="D41" t="n">
-        <v>330.3296217791086</v>
+        <v>330.3296217791085</v>
       </c>
       <c r="E41" t="n">
         <v>357.5769502306874</v>
       </c>
       <c r="F41" t="n">
-        <v>382.5226259001371</v>
+        <v>382.522625900137</v>
       </c>
       <c r="G41" t="n">
         <v>385.7278122428289</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>65.68159474186979</v>
+        <v>65.68159474186973</v>
       </c>
       <c r="T41" t="n">
-        <v>175.8852896995285</v>
+        <v>175.8852896995284</v>
       </c>
       <c r="U41" t="n">
-        <v>226.5745126318036</v>
+        <v>226.5745126318035</v>
       </c>
       <c r="V41" t="n">
-        <v>303.3988386285606</v>
+        <v>303.3988386285605</v>
       </c>
       <c r="W41" t="n">
-        <v>324.8875488758387</v>
+        <v>324.8875488758386</v>
       </c>
       <c r="X41" t="n">
-        <v>345.3776808368947</v>
+        <v>345.3776808368946</v>
       </c>
       <c r="Y41" t="n">
         <v>361.8845188144792</v>
@@ -3898,25 +3898,25 @@
         <v>155.4785603403629</v>
       </c>
       <c r="C43" t="n">
-        <v>142.8934012570535</v>
+        <v>142.8934012570534</v>
       </c>
       <c r="D43" t="n">
-        <v>124.262053176638</v>
+        <v>124.2620531766379</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>122.0805428049948</v>
       </c>
       <c r="F43" t="n">
-        <v>110.3717453282085</v>
+        <v>105.340778346049</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2953719374025</v>
+        <v>141.2953719374024</v>
       </c>
       <c r="H43" t="n">
-        <v>117.0495758228348</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.66108678635388</v>
+        <v>60.66108678635382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.62670091634294</v>
+        <v>47.62670091634288</v>
       </c>
       <c r="S43" t="n">
         <v>158.8452364693351</v>
@@ -3952,16 +3952,16 @@
         <v>193.5846408380115</v>
       </c>
       <c r="U43" t="n">
-        <v>261.837853828763</v>
+        <v>261.8378538287629</v>
       </c>
       <c r="V43" t="n">
-        <v>227.7842234822537</v>
+        <v>227.7842234822536</v>
       </c>
       <c r="W43" t="n">
-        <v>262.1695784950167</v>
+        <v>262.1695784950166</v>
       </c>
       <c r="X43" t="n">
-        <v>201.3562355474628</v>
+        <v>201.3562355474627</v>
       </c>
       <c r="Y43" t="n">
         <v>194.2312335105204</v>
@@ -3977,16 +3977,16 @@
         <v>358.3804218219062</v>
       </c>
       <c r="C44" t="n">
-        <v>340.9194719294332</v>
+        <v>340.9194719294331</v>
       </c>
       <c r="D44" t="n">
-        <v>330.3296217791086</v>
+        <v>330.3296217791085</v>
       </c>
       <c r="E44" t="n">
         <v>357.5769502306874</v>
       </c>
       <c r="F44" t="n">
-        <v>382.5226259001371</v>
+        <v>382.522625900137</v>
       </c>
       <c r="G44" t="n">
         <v>385.7278122428289</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>65.68159474186979</v>
+        <v>65.68159474186973</v>
       </c>
       <c r="T44" t="n">
-        <v>175.8852896995285</v>
+        <v>175.8852896995284</v>
       </c>
       <c r="U44" t="n">
-        <v>226.5745126318036</v>
+        <v>226.5745126318035</v>
       </c>
       <c r="V44" t="n">
-        <v>303.3988386285606</v>
+        <v>303.3988386285605</v>
       </c>
       <c r="W44" t="n">
-        <v>324.8875488758387</v>
+        <v>324.8875488758386</v>
       </c>
       <c r="X44" t="n">
-        <v>345.3776808368947</v>
+        <v>345.3776808368946</v>
       </c>
       <c r="Y44" t="n">
         <v>361.8845188144792</v>
@@ -4135,25 +4135,25 @@
         <v>155.4785603403629</v>
       </c>
       <c r="C46" t="n">
-        <v>142.8934012570535</v>
+        <v>142.8934012570534</v>
       </c>
       <c r="D46" t="n">
-        <v>124.262053176638</v>
+        <v>52.14671430484935</v>
       </c>
       <c r="E46" t="n">
-        <v>110.3717453282077</v>
+        <v>122.0805428049948</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>121.0676281813568</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2953719374025</v>
+        <v>141.2953719374024</v>
       </c>
       <c r="H46" t="n">
-        <v>117.0495758228348</v>
+        <v>117.0495758228347</v>
       </c>
       <c r="I46" t="n">
-        <v>60.66108678635388</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.62670091634294</v>
+        <v>47.62670091634289</v>
       </c>
       <c r="S46" t="n">
         <v>158.8452364693351</v>
@@ -4189,16 +4189,16 @@
         <v>193.5846408380115</v>
       </c>
       <c r="U46" t="n">
-        <v>261.837853828763</v>
+        <v>261.8378538287629</v>
       </c>
       <c r="V46" t="n">
-        <v>227.7842234822537</v>
+        <v>227.7842234822536</v>
       </c>
       <c r="W46" t="n">
-        <v>262.1695784950167</v>
+        <v>262.1695784950166</v>
       </c>
       <c r="X46" t="n">
-        <v>201.3562355474628</v>
+        <v>201.3562355474627</v>
       </c>
       <c r="Y46" t="n">
         <v>194.2312335105204</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.6632232379412</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="C5" t="n">
-        <v>22.37035940149558</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="D5" t="n">
-        <v>22.37035940149558</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="E5" t="n">
-        <v>22.37035940149558</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="F5" t="n">
-        <v>15.42485865229211</v>
+        <v>44.01058632518333</v>
       </c>
       <c r="G5" t="n">
-        <v>1.131994815846492</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="H5" t="n">
-        <v>1.131994815846492</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="I5" t="n">
         <v>1.131994815846492</v>
@@ -4571,46 +4571,46 @@
         <v>1.131994815846492</v>
       </c>
       <c r="L5" t="n">
+        <v>1.131994815846492</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.131994815846492</v>
+      </c>
+      <c r="N5" t="n">
         <v>14.57443325402359</v>
       </c>
-      <c r="M5" t="n">
-        <v>14.57443325402359</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>28.58286910012393</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>42.59130494622427</v>
-      </c>
-      <c r="P5" t="n">
-        <v>56.59974079232461</v>
       </c>
       <c r="Q5" t="n">
         <v>56.59974079232461</v>
       </c>
       <c r="R5" t="n">
-        <v>50.95608707438681</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="S5" t="n">
-        <v>50.95608707438681</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="T5" t="n">
-        <v>50.95608707438681</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="U5" t="n">
-        <v>50.95608707438681</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="V5" t="n">
-        <v>36.6632232379412</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="W5" t="n">
-        <v>36.6632232379412</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="X5" t="n">
-        <v>36.6632232379412</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.6632232379412</v>
+        <v>56.59974079232461</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.4248586522921</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="C6" t="n">
         <v>1.131994815846492</v>
@@ -4650,13 +4650,13 @@
         <v>1.131994815846492</v>
       </c>
       <c r="L6" t="n">
-        <v>14.57443325402359</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="M6" t="n">
-        <v>28.58286910012393</v>
+        <v>29.14886650804717</v>
       </c>
       <c r="N6" t="n">
-        <v>42.59130494622427</v>
+        <v>43.15730235414752</v>
       </c>
       <c r="O6" t="n">
         <v>56.59974079232461</v>
@@ -4668,28 +4668,28 @@
         <v>56.59974079232461</v>
       </c>
       <c r="R6" t="n">
-        <v>56.59974079232461</v>
+        <v>42.306876955879</v>
       </c>
       <c r="S6" t="n">
-        <v>56.59974079232461</v>
+        <v>42.306876955879</v>
       </c>
       <c r="T6" t="n">
-        <v>56.59974079232461</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="U6" t="n">
-        <v>56.59974079232461</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="V6" t="n">
-        <v>42.306876955879</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="W6" t="n">
-        <v>28.01401311943339</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="X6" t="n">
-        <v>28.01401311943339</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.4248586522921</v>
+        <v>1.131994815846492</v>
       </c>
     </row>
     <row r="7">
@@ -4726,16 +4726,16 @@
         <v>1.131994815846492</v>
       </c>
       <c r="K7" t="n">
+        <v>1.131994815846492</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.131994815846492</v>
+      </c>
+      <c r="M7" t="n">
         <v>15.14043066194683</v>
       </c>
-      <c r="L7" t="n">
-        <v>29.14886650804717</v>
-      </c>
-      <c r="M7" t="n">
-        <v>29.14886650804717</v>
-      </c>
       <c r="N7" t="n">
-        <v>29.14886650804717</v>
+        <v>28.58286910012393</v>
       </c>
       <c r="O7" t="n">
         <v>42.59130494622427</v>
@@ -4750,22 +4750,22 @@
         <v>42.306876955879</v>
       </c>
       <c r="S7" t="n">
-        <v>28.01401311943339</v>
+        <v>42.306876955879</v>
       </c>
       <c r="T7" t="n">
-        <v>28.01401311943339</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="U7" t="n">
-        <v>28.01401311943339</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="V7" t="n">
-        <v>13.72114928298778</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="W7" t="n">
-        <v>13.72114928298778</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="X7" t="n">
-        <v>13.72114928298778</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="Y7" t="n">
         <v>1.131994815846492</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.3628934706926</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="C8" t="n">
-        <v>170.3628934706926</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="D8" t="n">
-        <v>170.3628934706926</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="E8" t="n">
-        <v>170.3628934706926</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="F8" t="n">
-        <v>163.4173927214891</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G8" t="n">
-        <v>150.1872581456729</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201469</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201469</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201469</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201469</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V8" t="n">
-        <v>549.2024635036621</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W8" t="n">
-        <v>549.2024635036621</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="X8" t="n">
-        <v>359.7826784871773</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="Y8" t="n">
-        <v>170.3628934706926</v>
+        <v>560.6825636487952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772653</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N9" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843276</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S9" t="n">
-        <v>571.6362168389239</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="T9" t="n">
-        <v>382.2164318224392</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="U9" t="n">
-        <v>192.7966468059544</v>
+        <v>540.3761749793904</v>
       </c>
       <c r="V9" t="n">
-        <v>15.00204697330559</v>
+        <v>540.3761749793904</v>
       </c>
       <c r="W9" t="n">
-        <v>15.00204697330559</v>
+        <v>350.9563899629055</v>
       </c>
       <c r="X9" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>459.9217274659449</v>
+        <v>482.4987760860273</v>
       </c>
       <c r="C10" t="n">
-        <v>459.9217274659449</v>
+        <v>313.5625931581204</v>
       </c>
       <c r="D10" t="n">
-        <v>309.8050880536091</v>
+        <v>313.5625931581204</v>
       </c>
       <c r="E10" t="n">
-        <v>161.891994471216</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
         <v>106.7151088594234</v>
@@ -4969,43 +4969,43 @@
         <v>279.6026869745584</v>
       </c>
       <c r="M10" t="n">
-        <v>448.2056470819954</v>
+        <v>465.2530182692152</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242516</v>
+        <v>650.903349563872</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608018</v>
+        <v>750.10234866528</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="T10" t="n">
-        <v>649.3415124824296</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="U10" t="n">
-        <v>459.9217274659449</v>
+        <v>671.9185611025122</v>
       </c>
       <c r="V10" t="n">
-        <v>459.9217274659449</v>
+        <v>671.9185611025122</v>
       </c>
       <c r="W10" t="n">
-        <v>459.9217274659449</v>
+        <v>482.4987760860273</v>
       </c>
       <c r="X10" t="n">
-        <v>459.9217274659449</v>
+        <v>482.4987760860273</v>
       </c>
       <c r="Y10" t="n">
-        <v>459.9217274659449</v>
+        <v>482.4987760860273</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1514.348043559526</v>
+        <v>1544.306735920717</v>
       </c>
       <c r="C11" t="n">
-        <v>1514.348043559526</v>
+        <v>1175.344218980306</v>
       </c>
       <c r="D11" t="n">
-        <v>1156.082344952775</v>
+        <v>817.0785203735552</v>
       </c>
       <c r="E11" t="n">
-        <v>770.2940923545307</v>
+        <v>817.0785203735552</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839477</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839477</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796417</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535337</v>
+        <v>2161.56895166258</v>
       </c>
       <c r="Y11" t="n">
-        <v>1514.348043559526</v>
+        <v>1771.429619686768</v>
       </c>
     </row>
     <row r="12">
@@ -5109,28 +5109,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>188.3660221513987</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>188.3660221513987</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>188.3660221513989</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
         <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1615.697475415546</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W13" t="n">
-        <v>1494.054724415577</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>370.0144869816385</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2314.12351953554</v>
+        <v>1969.731723796102</v>
       </c>
       <c r="C14" t="n">
-        <v>1945.161002595128</v>
+        <v>1600.76920685569</v>
       </c>
       <c r="D14" t="n">
-        <v>1586.895303988378</v>
+        <v>1596.161770101628</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.107051390134</v>
+        <v>1210.373517503383</v>
       </c>
       <c r="F14" t="n">
-        <v>790.1211466005259</v>
+        <v>799.3876127137761</v>
       </c>
       <c r="G14" t="n">
-        <v>375.8976798486034</v>
+        <v>385.1641459618536</v>
       </c>
       <c r="H14" t="n">
-        <v>87.00873073417414</v>
+        <v>96.27519684742431</v>
       </c>
       <c r="I14" t="n">
-        <v>87.00873073417414</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J14" t="n">
-        <v>346.510344338813</v>
+        <v>346.5103443388134</v>
       </c>
       <c r="K14" t="n">
-        <v>786.1745125243897</v>
+        <v>786.1745125243901</v>
       </c>
       <c r="L14" t="n">
-        <v>1368.518552781711</v>
+        <v>1368.518552781712</v>
       </c>
       <c r="M14" t="n">
-        <v>2048.157940696058</v>
+        <v>2048.157940696059</v>
       </c>
       <c r="N14" t="n">
-        <v>2743.408412826798</v>
+        <v>2743.408412826797</v>
       </c>
       <c r="O14" t="n">
-        <v>3386.578457430121</v>
+        <v>3386.57845743012</v>
       </c>
       <c r="P14" t="n">
-        <v>3901.008209375217</v>
+        <v>3901.008209375215</v>
       </c>
       <c r="Q14" t="n">
-        <v>4239.150782536623</v>
+        <v>4239.150782536621</v>
       </c>
       <c r="R14" t="n">
-        <v>4350.436536708707</v>
+        <v>4350.436536708705</v>
       </c>
       <c r="S14" t="n">
-        <v>4259.49207753351</v>
+        <v>4259.492077533509</v>
       </c>
       <c r="T14" t="n">
-        <v>4057.23075476472</v>
+        <v>4057.230754764718</v>
       </c>
       <c r="U14" t="n">
-        <v>3803.768196710802</v>
+        <v>3803.768196710801</v>
       </c>
       <c r="V14" t="n">
-        <v>3472.705309367232</v>
+        <v>3472.705309367229</v>
       </c>
       <c r="W14" t="n">
-        <v>3464.328449836553</v>
+        <v>3119.936654097115</v>
       </c>
       <c r="X14" t="n">
-        <v>3090.862691575474</v>
+        <v>2746.470895836035</v>
       </c>
       <c r="Y14" t="n">
-        <v>2700.723359599662</v>
+        <v>2356.331563860223</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>90.37640649392134</v>
       </c>
       <c r="I15" t="n">
-        <v>87.00873073417414</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J15" t="n">
-        <v>222.748267076078</v>
+        <v>222.7482670760779</v>
       </c>
       <c r="K15" t="n">
-        <v>532.9035796845676</v>
+        <v>532.9035796845674</v>
       </c>
       <c r="L15" t="n">
-        <v>996.2682141847331</v>
+        <v>996.2682141847328</v>
       </c>
       <c r="M15" t="n">
         <v>1556.349755320833</v>
       </c>
       <c r="N15" t="n">
-        <v>2145.663633191914</v>
+        <v>1944.640304156038</v>
       </c>
       <c r="O15" t="n">
-        <v>2159.112102480408</v>
+        <v>1944.640304156038</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.626640995707</v>
+        <v>2340.154842671337</v>
       </c>
       <c r="Q15" t="n">
         <v>2554.626640995707</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1011.017914804605</v>
+        <v>1036.501227747673</v>
       </c>
       <c r="C16" t="n">
-        <v>842.0817318766982</v>
+        <v>867.5650448197662</v>
       </c>
       <c r="D16" t="n">
-        <v>691.9650924643624</v>
+        <v>717.4484054074304</v>
       </c>
       <c r="E16" t="n">
-        <v>544.0519988819693</v>
+        <v>569.5353118250373</v>
       </c>
       <c r="F16" t="n">
-        <v>397.1620513840589</v>
+        <v>422.6453643271269</v>
       </c>
       <c r="G16" t="n">
-        <v>229.8400394861025</v>
+        <v>255.3233524291706</v>
       </c>
       <c r="H16" t="n">
-        <v>87.00873073417414</v>
+        <v>112.4920436772422</v>
       </c>
       <c r="I16" t="n">
-        <v>87.00873073417414</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J16" t="n">
-        <v>158.5198776693485</v>
+        <v>158.5198776693484</v>
       </c>
       <c r="K16" t="n">
-        <v>405.8714961537388</v>
+        <v>405.871496153739</v>
       </c>
       <c r="L16" t="n">
-        <v>777.9228422350828</v>
+        <v>777.922842235083</v>
       </c>
       <c r="M16" t="n">
         <v>1180.587944324371</v>
       </c>
       <c r="N16" t="n">
-        <v>1579.113186708586</v>
+        <v>1579.113186708585</v>
       </c>
       <c r="O16" t="n">
-        <v>1931.199455715554</v>
+        <v>1931.199455715553</v>
       </c>
       <c r="P16" t="n">
-        <v>2208.94940140465</v>
+        <v>2208.949401404649</v>
       </c>
       <c r="Q16" t="n">
-        <v>2317.813986736946</v>
+        <v>2317.813986736945</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.106794052182</v>
+        <v>2317.813986736945</v>
       </c>
       <c r="S16" t="n">
-        <v>2060.057646263384</v>
+        <v>2317.813986736945</v>
       </c>
       <c r="T16" t="n">
-        <v>1839.918191031479</v>
+        <v>2097.67453150504</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.918191031479</v>
+        <v>1808.592436888538</v>
       </c>
       <c r="V16" t="n">
-        <v>1585.233702825592</v>
+        <v>1553.907948682651</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.458958778375</v>
+        <v>1264.49077864569</v>
       </c>
       <c r="X16" t="n">
-        <v>1413.458958778375</v>
+        <v>1036.501227747673</v>
       </c>
       <c r="Y16" t="n">
-        <v>1192.666379634845</v>
+        <v>1036.501227747673</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2128.892128538163</v>
+        <v>2194.753215978997</v>
       </c>
       <c r="C17" t="n">
         <v>1845.685749631343</v>
       </c>
       <c r="D17" t="n">
-        <v>1507.31510161735</v>
+        <v>1507.315101617349</v>
       </c>
       <c r="E17" t="n">
-        <v>1141.421899611863</v>
+        <v>1141.421899611862</v>
       </c>
       <c r="F17" t="n">
-        <v>750.3310454150123</v>
+        <v>750.3310454150117</v>
       </c>
       <c r="G17" t="n">
-        <v>356.0026292558463</v>
+        <v>356.0026292558462</v>
       </c>
       <c r="H17" t="n">
-        <v>87.00873073417415</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="I17" t="n">
-        <v>87.00873073417415</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J17" t="n">
-        <v>346.5103443388143</v>
+        <v>346.5103443388132</v>
       </c>
       <c r="K17" t="n">
-        <v>786.174512524391</v>
+        <v>786.1745125243897</v>
       </c>
       <c r="L17" t="n">
-        <v>1368.518552781712</v>
+        <v>1368.518552781711</v>
       </c>
       <c r="M17" t="n">
-        <v>2048.15794069606</v>
+        <v>2048.157940696058</v>
       </c>
       <c r="N17" t="n">
-        <v>2743.408412826799</v>
+        <v>2743.408412826796</v>
       </c>
       <c r="O17" t="n">
-        <v>3386.578457430121</v>
+        <v>3386.578457430119</v>
       </c>
       <c r="P17" t="n">
-        <v>3901.008209375217</v>
+        <v>3901.008209375215</v>
       </c>
       <c r="Q17" t="n">
-        <v>4239.150782536623</v>
+        <v>4239.150782536621</v>
       </c>
       <c r="R17" t="n">
-        <v>4350.436536708708</v>
+        <v>4350.436536708705</v>
       </c>
       <c r="S17" t="n">
-        <v>4279.387128126268</v>
+        <v>4279.387128126267</v>
       </c>
       <c r="T17" t="n">
-        <v>4097.020855950234</v>
+        <v>4162.881943391069</v>
       </c>
       <c r="U17" t="n">
-        <v>3863.453348489075</v>
+        <v>3929.314435929909</v>
       </c>
       <c r="V17" t="n">
-        <v>3552.285511738261</v>
+        <v>3618.146599179096</v>
       </c>
       <c r="W17" t="n">
-        <v>3219.411907060904</v>
+        <v>3285.272994501739</v>
       </c>
       <c r="X17" t="n">
-        <v>2865.841199392582</v>
+        <v>2931.702286833416</v>
       </c>
       <c r="Y17" t="n">
-        <v>2495.596918009527</v>
+        <v>2561.458005450362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,61 +5568,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5595451115086</v>
+        <v>941.5595451115083</v>
       </c>
       <c r="C18" t="n">
-        <v>767.1065158303816</v>
+        <v>767.1065158303813</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1721061691303</v>
+        <v>618.1721061691301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9346511636747</v>
+        <v>458.9346511636746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.4000931905597</v>
+        <v>312.4000931905596</v>
       </c>
       <c r="G18" t="n">
         <v>176.491239190213</v>
       </c>
       <c r="H18" t="n">
-        <v>90.37640649392135</v>
+        <v>90.37640649392131</v>
       </c>
       <c r="I18" t="n">
-        <v>87.00873073417415</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J18" t="n">
         <v>222.748267076078</v>
       </c>
       <c r="K18" t="n">
-        <v>222.748267076078</v>
+        <v>532.9035796845676</v>
       </c>
       <c r="L18" t="n">
-        <v>492.829412231128</v>
+        <v>996.2682141847331</v>
       </c>
       <c r="M18" t="n">
-        <v>1052.910953367228</v>
+        <v>1556.349755320833</v>
       </c>
       <c r="N18" t="n">
-        <v>1642.224831238309</v>
+        <v>2145.663633191914</v>
       </c>
       <c r="O18" t="n">
-        <v>2159.112102480408</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.626640995707</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="Q18" t="n">
-        <v>2554.626640995707</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="R18" t="n">
-        <v>2554.626640995707</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="S18" t="n">
         <v>2433.626177811092</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.81410831134</v>
+        <v>2242.814108311339</v>
       </c>
       <c r="U18" t="n">
         <v>2014.776146062007</v>
@@ -5637,7 +5637,7 @@
         <v>1317.53518089653</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.774882131577</v>
+        <v>1109.774882131576</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>919.4469116281055</v>
+        <v>764.1645534148533</v>
       </c>
       <c r="C19" t="n">
-        <v>770.4057792929557</v>
+        <v>615.1234210797036</v>
       </c>
       <c r="D19" t="n">
-        <v>640.184190473377</v>
+        <v>615.1234210797036</v>
       </c>
       <c r="E19" t="n">
-        <v>512.166147483741</v>
+        <v>487.1053780900676</v>
       </c>
       <c r="F19" t="n">
-        <v>423.3501386238969</v>
+        <v>360.1104811849144</v>
       </c>
       <c r="G19" t="n">
-        <v>275.9231773186976</v>
+        <v>212.6835198797152</v>
       </c>
       <c r="H19" t="n">
-        <v>152.9869191595264</v>
+        <v>89.7472617205446</v>
       </c>
       <c r="I19" t="n">
-        <v>87.00873073417415</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J19" t="n">
         <v>178.0190167553097</v>
       </c>
       <c r="K19" t="n">
-        <v>444.8697743256613</v>
+        <v>444.8697743256607</v>
       </c>
       <c r="L19" t="n">
-        <v>836.4202594929665</v>
+        <v>836.4202594929659</v>
       </c>
       <c r="M19" t="n">
-        <v>1258.584500668216</v>
+        <v>1258.584500668215</v>
       </c>
       <c r="N19" t="n">
         <v>1676.608882138391</v>
       </c>
       <c r="O19" t="n">
-        <v>2048.194290231321</v>
+        <v>2048.19429023132</v>
       </c>
       <c r="P19" t="n">
-        <v>2345.443375006378</v>
+        <v>2345.443375006377</v>
       </c>
       <c r="Q19" t="n">
-        <v>2473.807099424636</v>
+        <v>2473.807099424635</v>
       </c>
       <c r="R19" t="n">
-        <v>2420.994957332628</v>
+        <v>2473.807099424635</v>
       </c>
       <c r="S19" t="n">
-        <v>2255.840860136588</v>
+        <v>2308.653002228595</v>
       </c>
       <c r="T19" t="n">
-        <v>2055.59645549744</v>
+        <v>2108.408597589447</v>
       </c>
       <c r="U19" t="n">
-        <v>1786.409411473694</v>
+        <v>1839.221553565702</v>
       </c>
       <c r="V19" t="n">
-        <v>1551.619973860565</v>
+        <v>1604.432115952573</v>
       </c>
       <c r="W19" t="n">
-        <v>1282.097854416361</v>
+        <v>1334.909996508369</v>
       </c>
       <c r="X19" t="n">
-        <v>1282.097854416361</v>
+        <v>1126.815496203109</v>
       </c>
       <c r="Y19" t="n">
-        <v>1081.200325865588</v>
+        <v>925.9179676523358</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2128.89212853816</v>
+        <v>2194.753215978997</v>
       </c>
       <c r="C20" t="n">
         <v>1845.685749631343</v>
@@ -5738,19 +5738,19 @@
         <v>1141.421899611862</v>
       </c>
       <c r="F20" t="n">
-        <v>750.3310454150115</v>
+        <v>750.3310454150117</v>
       </c>
       <c r="G20" t="n">
         <v>356.0026292558463</v>
       </c>
       <c r="H20" t="n">
-        <v>87.00873073417409</v>
+        <v>87.00873073417414</v>
       </c>
       <c r="I20" t="n">
-        <v>87.00873073417409</v>
+        <v>87.00873073417414</v>
       </c>
       <c r="J20" t="n">
-        <v>346.510344338813</v>
+        <v>346.5103443388132</v>
       </c>
       <c r="K20" t="n">
         <v>786.1745125243897</v>
@@ -5762,40 +5762,40 @@
         <v>2048.157940696058</v>
       </c>
       <c r="N20" t="n">
-        <v>2743.408412826796</v>
+        <v>2743.408412826797</v>
       </c>
       <c r="O20" t="n">
         <v>3386.578457430119</v>
       </c>
       <c r="P20" t="n">
-        <v>3901.008209375215</v>
+        <v>3901.008209375217</v>
       </c>
       <c r="Q20" t="n">
-        <v>4239.150782536621</v>
+        <v>4239.150782536623</v>
       </c>
       <c r="R20" t="n">
-        <v>4350.436536708705</v>
+        <v>4350.436536708707</v>
       </c>
       <c r="S20" t="n">
-        <v>4279.387128126265</v>
+        <v>4279.387128126267</v>
       </c>
       <c r="T20" t="n">
-        <v>4097.020855950232</v>
+        <v>4162.881943391068</v>
       </c>
       <c r="U20" t="n">
-        <v>3863.453348489072</v>
+        <v>3929.314435929909</v>
       </c>
       <c r="V20" t="n">
-        <v>3552.285511738258</v>
+        <v>3618.146599179096</v>
       </c>
       <c r="W20" t="n">
-        <v>3219.411907060901</v>
+        <v>3285.272994501739</v>
       </c>
       <c r="X20" t="n">
-        <v>2865.841199392579</v>
+        <v>2931.702286833416</v>
       </c>
       <c r="Y20" t="n">
-        <v>2495.596918009524</v>
+        <v>2561.458005450362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,61 +5805,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5595451115083</v>
+        <v>941.5595451115086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.1065158303813</v>
+        <v>767.1065158303816</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1721061691301</v>
+        <v>618.1721061691303</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9346511636746</v>
+        <v>458.9346511636747</v>
       </c>
       <c r="F21" t="n">
-        <v>312.4000931905596</v>
+        <v>312.4000931905597</v>
       </c>
       <c r="G21" t="n">
         <v>176.491239190213</v>
       </c>
       <c r="H21" t="n">
-        <v>90.37640649392131</v>
+        <v>90.37640649392135</v>
       </c>
       <c r="I21" t="n">
-        <v>87.00873073417409</v>
+        <v>87.00873073417414</v>
       </c>
       <c r="J21" t="n">
-        <v>222.748267076078</v>
+        <v>114.8240036377721</v>
       </c>
       <c r="K21" t="n">
-        <v>278.3576139067583</v>
+        <v>424.9793162462616</v>
       </c>
       <c r="L21" t="n">
-        <v>278.3576139067583</v>
+        <v>888.3439507464271</v>
       </c>
       <c r="M21" t="n">
-        <v>838.4391550428581</v>
+        <v>1448.425491882527</v>
       </c>
       <c r="N21" t="n">
-        <v>1427.753032913939</v>
+        <v>2037.739369753607</v>
       </c>
       <c r="O21" t="n">
-        <v>1944.640304156038</v>
+        <v>2554.626640995707</v>
       </c>
       <c r="P21" t="n">
-        <v>2340.154842671336</v>
+        <v>2554.626640995707</v>
       </c>
       <c r="Q21" t="n">
-        <v>2554.626640995706</v>
+        <v>2554.626640995707</v>
       </c>
       <c r="R21" t="n">
-        <v>2554.626640995706</v>
+        <v>2554.626640995707</v>
       </c>
       <c r="S21" t="n">
         <v>2433.626177811092</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.814108311339</v>
+        <v>2242.81410831134</v>
       </c>
       <c r="U21" t="n">
         <v>2014.776146062007</v>
@@ -5874,7 +5874,7 @@
         <v>1317.53518089653</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.774882131576</v>
+        <v>1109.774882131577</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>764.1645534148529</v>
+        <v>891.6476112480614</v>
       </c>
       <c r="C22" t="n">
-        <v>615.1234210797031</v>
+        <v>742.6064789129116</v>
       </c>
       <c r="D22" t="n">
-        <v>484.9018322601245</v>
+        <v>612.3848900933331</v>
       </c>
       <c r="E22" t="n">
-        <v>356.8837892704885</v>
+        <v>484.366847103697</v>
       </c>
       <c r="F22" t="n">
-        <v>229.8888923653357</v>
+        <v>357.3719501985438</v>
       </c>
       <c r="G22" t="n">
-        <v>229.8888923653357</v>
+        <v>209.9449888933454</v>
       </c>
       <c r="H22" t="n">
-        <v>106.9526342061644</v>
+        <v>87.00873073417414</v>
       </c>
       <c r="I22" t="n">
-        <v>87.00873073417409</v>
+        <v>87.00873073417414</v>
       </c>
       <c r="J22" t="n">
         <v>178.0190167553097</v>
       </c>
       <c r="K22" t="n">
-        <v>444.8697743256611</v>
+        <v>444.8697743256612</v>
       </c>
       <c r="L22" t="n">
         <v>836.4202594929664</v>
@@ -5926,19 +5926,19 @@
         <v>2048.19429023132</v>
       </c>
       <c r="P22" t="n">
-        <v>2345.443375006377</v>
+        <v>2345.443375006378</v>
       </c>
       <c r="Q22" t="n">
-        <v>2473.807099424635</v>
+        <v>2473.807099424636</v>
       </c>
       <c r="R22" t="n">
-        <v>2473.807099424635</v>
+        <v>2473.807099424636</v>
       </c>
       <c r="S22" t="n">
-        <v>2308.653002228595</v>
+        <v>2308.653002228596</v>
       </c>
       <c r="T22" t="n">
-        <v>2108.408597589448</v>
+        <v>2108.408597589447</v>
       </c>
       <c r="U22" t="n">
         <v>1839.221553565702</v>
@@ -5950,10 +5950,10 @@
         <v>1334.909996508369</v>
       </c>
       <c r="X22" t="n">
-        <v>1126.815496203109</v>
+        <v>1126.815496203108</v>
       </c>
       <c r="Y22" t="n">
-        <v>925.9179676523355</v>
+        <v>1053.401025485544</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2196.097319804322</v>
+        <v>2196.097319804321</v>
       </c>
       <c r="C23" t="n">
-        <v>1847.029853456667</v>
+        <v>1847.029853456666</v>
       </c>
       <c r="D23" t="n">
         <v>1508.659205442673</v>
@@ -5978,61 +5978,61 @@
         <v>751.6751492403355</v>
       </c>
       <c r="G23" t="n">
-        <v>357.3467330811695</v>
+        <v>357.3467330811694</v>
       </c>
       <c r="H23" t="n">
-        <v>88.35283455949734</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="I23" t="n">
-        <v>88.35283455949734</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="J23" t="n">
-        <v>348.6562799307218</v>
+        <v>347.8544481641363</v>
       </c>
       <c r="K23" t="n">
-        <v>788.3204481162983</v>
+        <v>853.3797037905505</v>
       </c>
       <c r="L23" t="n">
-        <v>1370.664488373619</v>
+        <v>1435.723744047872</v>
       </c>
       <c r="M23" t="n">
-        <v>2050.303876287967</v>
+        <v>2115.363131962219</v>
       </c>
       <c r="N23" t="n">
-        <v>2745.554348418706</v>
+        <v>2810.613604092958</v>
       </c>
       <c r="O23" t="n">
-        <v>3388.724393022028</v>
+        <v>3453.78364869628</v>
       </c>
       <c r="P23" t="n">
-        <v>3903.154144967124</v>
+        <v>3968.213400641376</v>
       </c>
       <c r="Q23" t="n">
-        <v>4241.296718128529</v>
+        <v>4306.355973802782</v>
       </c>
       <c r="R23" t="n">
-        <v>4417.641727974867</v>
+        <v>4417.641727974866</v>
       </c>
       <c r="S23" t="n">
-        <v>4346.592319392428</v>
+        <v>4346.592319392426</v>
       </c>
       <c r="T23" t="n">
-        <v>4164.226047216394</v>
+        <v>4164.226047216393</v>
       </c>
       <c r="U23" t="n">
         <v>3930.658539755234</v>
       </c>
       <c r="V23" t="n">
-        <v>3619.490703004421</v>
+        <v>3619.49070300442</v>
       </c>
       <c r="W23" t="n">
-        <v>3286.617098327064</v>
+        <v>3286.617098327063</v>
       </c>
       <c r="X23" t="n">
-        <v>2933.046390658741</v>
+        <v>2933.04639065874</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.802109275686</v>
+        <v>2562.802109275685</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>177.8353430155362</v>
       </c>
       <c r="H24" t="n">
-        <v>91.72051031924455</v>
+        <v>91.72051031924453</v>
       </c>
       <c r="I24" t="n">
-        <v>88.35283455949734</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="J24" t="n">
-        <v>224.0923709014012</v>
+        <v>116.1681074630952</v>
       </c>
       <c r="K24" t="n">
-        <v>224.0923709014012</v>
+        <v>426.3234200715848</v>
       </c>
       <c r="L24" t="n">
-        <v>252.2013318549394</v>
+        <v>889.6880545717503</v>
       </c>
       <c r="M24" t="n">
-        <v>812.2828729910393</v>
+        <v>1449.76959570785</v>
       </c>
       <c r="N24" t="n">
-        <v>1401.59675086212</v>
+        <v>2039.083473578931</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.484022104219</v>
+        <v>2555.97074482103</v>
       </c>
       <c r="P24" t="n">
-        <v>2313.998560619517</v>
+        <v>2555.97074482103</v>
       </c>
       <c r="Q24" t="n">
-        <v>2528.470358943887</v>
+        <v>2555.97074482103</v>
       </c>
       <c r="R24" t="n">
         <v>2555.97074482103</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>712.6965151481679</v>
+        <v>836.0336453395662</v>
       </c>
       <c r="C25" t="n">
-        <v>563.6553828130182</v>
+        <v>686.9925130044164</v>
       </c>
       <c r="D25" t="n">
-        <v>433.4337939934396</v>
+        <v>556.7709241848379</v>
       </c>
       <c r="E25" t="n">
-        <v>428.7528811952022</v>
+        <v>428.752881195202</v>
       </c>
       <c r="F25" t="n">
-        <v>301.7579842900489</v>
+        <v>301.7579842900487</v>
       </c>
       <c r="G25" t="n">
-        <v>154.3310229848496</v>
+        <v>154.3310229848495</v>
       </c>
       <c r="H25" t="n">
-        <v>154.3310229848496</v>
+        <v>154.3310229848495</v>
       </c>
       <c r="I25" t="n">
-        <v>88.35283455949734</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="J25" t="n">
-        <v>179.3631205806328</v>
+        <v>179.3631205806329</v>
       </c>
       <c r="K25" t="n">
-        <v>446.2138781509843</v>
+        <v>446.2138781509844</v>
       </c>
       <c r="L25" t="n">
-        <v>837.7643633182895</v>
+        <v>837.7643633182896</v>
       </c>
       <c r="M25" t="n">
         <v>1259.928604493539</v>
@@ -6172,25 +6172,25 @@
         <v>2422.339061157951</v>
       </c>
       <c r="S25" t="n">
-        <v>2257.18496396191</v>
+        <v>2380.522094153308</v>
       </c>
       <c r="T25" t="n">
-        <v>2056.940559322763</v>
+        <v>2180.277689514161</v>
       </c>
       <c r="U25" t="n">
-        <v>1787.753515299017</v>
+        <v>1911.090645490415</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.964077685888</v>
+        <v>1676.301207877286</v>
       </c>
       <c r="W25" t="n">
-        <v>1283.441958241684</v>
+        <v>1406.779088433082</v>
       </c>
       <c r="X25" t="n">
-        <v>1075.347457936424</v>
+        <v>1198.684588127822</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.4499293856505</v>
+        <v>997.7870595770487</v>
       </c>
     </row>
     <row r="26">
@@ -6206,55 +6206,55 @@
         <v>1847.029853456666</v>
       </c>
       <c r="D26" t="n">
-        <v>1508.659205442672</v>
+        <v>1508.659205442673</v>
       </c>
       <c r="E26" t="n">
-        <v>1142.766003437185</v>
+        <v>1142.766003437186</v>
       </c>
       <c r="F26" t="n">
-        <v>751.6751492403348</v>
+        <v>751.6751492403354</v>
       </c>
       <c r="G26" t="n">
-        <v>357.3467330811695</v>
+        <v>357.3467330811694</v>
       </c>
       <c r="H26" t="n">
-        <v>88.35283455949735</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="I26" t="n">
-        <v>88.35283455949735</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="J26" t="n">
-        <v>413.7155356049759</v>
+        <v>413.715535604974</v>
       </c>
       <c r="K26" t="n">
-        <v>853.3797037905523</v>
+        <v>853.3797037905505</v>
       </c>
       <c r="L26" t="n">
-        <v>1435.723744047873</v>
+        <v>1435.723744047872</v>
       </c>
       <c r="M26" t="n">
-        <v>2115.363131962221</v>
+        <v>2115.363131962219</v>
       </c>
       <c r="N26" t="n">
-        <v>2810.61360409296</v>
+        <v>2810.613604092958</v>
       </c>
       <c r="O26" t="n">
-        <v>3453.783648696282</v>
+        <v>3453.78364869628</v>
       </c>
       <c r="P26" t="n">
-        <v>3968.213400641378</v>
+        <v>3968.213400641376</v>
       </c>
       <c r="Q26" t="n">
-        <v>4306.355973802783</v>
+        <v>4306.355973802782</v>
       </c>
       <c r="R26" t="n">
-        <v>4417.641727974868</v>
+        <v>4417.641727974866</v>
       </c>
       <c r="S26" t="n">
-        <v>4346.592319392428</v>
+        <v>4346.592319392426</v>
       </c>
       <c r="T26" t="n">
-        <v>4164.226047216394</v>
+        <v>4164.226047216393</v>
       </c>
       <c r="U26" t="n">
         <v>3930.658539755234</v>
@@ -6269,7 +6269,7 @@
         <v>2933.04639065874</v>
       </c>
       <c r="Y26" t="n">
-        <v>2562.802109275685</v>
+        <v>2562.802109275686</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6291,16 @@
         <v>460.2787549889979</v>
       </c>
       <c r="F27" t="n">
-        <v>313.7441970158829</v>
+        <v>313.7441970158828</v>
       </c>
       <c r="G27" t="n">
-        <v>177.8353430155363</v>
+        <v>177.8353430155362</v>
       </c>
       <c r="H27" t="n">
-        <v>91.72051031924457</v>
+        <v>91.72051031924453</v>
       </c>
       <c r="I27" t="n">
-        <v>88.35283455949735</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="J27" t="n">
         <v>224.0923709014012</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>712.6965151481679</v>
+        <v>947.4859527612989</v>
       </c>
       <c r="C28" t="n">
-        <v>563.655382813018</v>
+        <v>798.4448204261491</v>
       </c>
       <c r="D28" t="n">
-        <v>552.7122854388562</v>
+        <v>668.2232316065705</v>
       </c>
       <c r="E28" t="n">
-        <v>424.6942424492202</v>
+        <v>540.2051886169345</v>
       </c>
       <c r="F28" t="n">
-        <v>424.6942424492202</v>
+        <v>413.2102917117813</v>
       </c>
       <c r="G28" t="n">
-        <v>277.2672811440209</v>
+        <v>277.2672811440207</v>
       </c>
       <c r="H28" t="n">
-        <v>154.3310229848496</v>
+        <v>154.3310229848495</v>
       </c>
       <c r="I28" t="n">
-        <v>88.35283455949735</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="J28" t="n">
         <v>179.3631205806329</v>
       </c>
       <c r="K28" t="n">
-        <v>446.2138781509843</v>
+        <v>446.2138781509844</v>
       </c>
       <c r="L28" t="n">
-        <v>837.7643633182895</v>
+        <v>837.7643633182896</v>
       </c>
       <c r="M28" t="n">
         <v>1259.928604493539</v>
@@ -6418,16 +6418,16 @@
         <v>1787.753515299018</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.964077685888</v>
+        <v>1787.753515299018</v>
       </c>
       <c r="W28" t="n">
-        <v>1283.441958241684</v>
+        <v>1518.231395854815</v>
       </c>
       <c r="X28" t="n">
-        <v>1075.347457936424</v>
+        <v>1310.136895549554</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.4499293856505</v>
+        <v>1109.239366998781</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2196.097319804322</v>
+        <v>2196.09731980432</v>
       </c>
       <c r="C29" t="n">
-        <v>1847.029853456667</v>
+        <v>1847.029853456666</v>
       </c>
       <c r="D29" t="n">
-        <v>1508.659205442673</v>
+        <v>1508.659205442672</v>
       </c>
       <c r="E29" t="n">
         <v>1142.766003437186</v>
       </c>
       <c r="F29" t="n">
-        <v>751.6751492403357</v>
+        <v>751.6751492403355</v>
       </c>
       <c r="G29" t="n">
-        <v>357.3467330811695</v>
+        <v>357.3467330811694</v>
       </c>
       <c r="H29" t="n">
-        <v>88.35283455949735</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="I29" t="n">
-        <v>88.35283455949735</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="J29" t="n">
-        <v>413.7155356049759</v>
+        <v>413.715535604974</v>
       </c>
       <c r="K29" t="n">
-        <v>853.3797037905523</v>
+        <v>853.3797037905505</v>
       </c>
       <c r="L29" t="n">
-        <v>1435.723744047873</v>
+        <v>1435.723744047872</v>
       </c>
       <c r="M29" t="n">
-        <v>2115.363131962221</v>
+        <v>2115.363131962219</v>
       </c>
       <c r="N29" t="n">
-        <v>2810.61360409296</v>
+        <v>2810.613604092958</v>
       </c>
       <c r="O29" t="n">
-        <v>3453.783648696282</v>
+        <v>3453.78364869628</v>
       </c>
       <c r="P29" t="n">
-        <v>3968.213400641378</v>
+        <v>3968.213400641376</v>
       </c>
       <c r="Q29" t="n">
-        <v>4306.355973802783</v>
+        <v>4306.355973802782</v>
       </c>
       <c r="R29" t="n">
-        <v>4417.641727974868</v>
+        <v>4417.641727974866</v>
       </c>
       <c r="S29" t="n">
-        <v>4346.592319392428</v>
+        <v>4346.592319392426</v>
       </c>
       <c r="T29" t="n">
-        <v>4164.226047216394</v>
+        <v>4164.226047216393</v>
       </c>
       <c r="U29" t="n">
-        <v>3930.658539755234</v>
+        <v>3930.658539755233</v>
       </c>
       <c r="V29" t="n">
-        <v>3619.490703004421</v>
+        <v>3619.490703004419</v>
       </c>
       <c r="W29" t="n">
-        <v>3286.617098327064</v>
+        <v>3286.617098327062</v>
       </c>
       <c r="X29" t="n">
-        <v>2933.046390658741</v>
+        <v>2933.046390658739</v>
       </c>
       <c r="Y29" t="n">
-        <v>2562.802109275686</v>
+        <v>2562.802109275685</v>
       </c>
     </row>
     <row r="30">
@@ -6528,16 +6528,16 @@
         <v>460.2787549889979</v>
       </c>
       <c r="F30" t="n">
-        <v>313.7441970158829</v>
+        <v>313.7441970158828</v>
       </c>
       <c r="G30" t="n">
-        <v>177.8353430155363</v>
+        <v>177.8353430155362</v>
       </c>
       <c r="H30" t="n">
-        <v>91.72051031924457</v>
+        <v>91.72051031924453</v>
       </c>
       <c r="I30" t="n">
-        <v>88.35283455949735</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="J30" t="n">
         <v>224.0923709014012</v>
@@ -6552,7 +6552,7 @@
         <v>1557.693859146156</v>
       </c>
       <c r="N30" t="n">
-        <v>2039.083473578931</v>
+        <v>2147.007737017237</v>
       </c>
       <c r="O30" t="n">
         <v>2555.97074482103</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>712.6965151481679</v>
+        <v>762.7701262538068</v>
       </c>
       <c r="C31" t="n">
-        <v>563.655382813018</v>
+        <v>613.728993918657</v>
       </c>
       <c r="D31" t="n">
-        <v>433.4337939934394</v>
+        <v>613.728993918657</v>
       </c>
       <c r="E31" t="n">
-        <v>424.6942424492202</v>
+        <v>485.710950929021</v>
       </c>
       <c r="F31" t="n">
-        <v>424.6942424492202</v>
+        <v>358.7160540238679</v>
       </c>
       <c r="G31" t="n">
-        <v>277.2672811440209</v>
+        <v>211.2890927186685</v>
       </c>
       <c r="H31" t="n">
-        <v>154.3310229848496</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="I31" t="n">
-        <v>88.35283455949735</v>
+        <v>88.35283455949731</v>
       </c>
       <c r="J31" t="n">
         <v>179.3631205806329</v>
       </c>
       <c r="K31" t="n">
-        <v>446.2138781509843</v>
+        <v>446.2138781509844</v>
       </c>
       <c r="L31" t="n">
-        <v>837.7643633182894</v>
+        <v>837.7643633182895</v>
       </c>
       <c r="M31" t="n">
         <v>1259.928604493539</v>
@@ -6634,37 +6634,37 @@
         <v>1677.952985963714</v>
       </c>
       <c r="O31" t="n">
-        <v>2049.538394056643</v>
+        <v>2049.538394056644</v>
       </c>
       <c r="P31" t="n">
-        <v>2346.7874788317</v>
+        <v>2346.787478831701</v>
       </c>
       <c r="Q31" t="n">
         <v>2475.151203249959</v>
       </c>
       <c r="R31" t="n">
-        <v>2422.339061157951</v>
+        <v>2472.412672263589</v>
       </c>
       <c r="S31" t="n">
-        <v>2257.18496396191</v>
+        <v>2307.258575067549</v>
       </c>
       <c r="T31" t="n">
-        <v>2056.940559322763</v>
+        <v>2107.014170428401</v>
       </c>
       <c r="U31" t="n">
-        <v>1787.753515299017</v>
+        <v>1837.827126404656</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.964077685887</v>
+        <v>1603.037688791526</v>
       </c>
       <c r="W31" t="n">
-        <v>1283.441958241684</v>
+        <v>1333.515569347323</v>
       </c>
       <c r="X31" t="n">
-        <v>1075.347457936424</v>
+        <v>1125.421069042062</v>
       </c>
       <c r="Y31" t="n">
-        <v>874.4499293856505</v>
+        <v>924.5235404912894</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2166.52703564721</v>
+        <v>2166.527035647209</v>
       </c>
       <c r="C32" t="n">
-        <v>1822.163932688187</v>
+        <v>1822.163932688186</v>
       </c>
       <c r="D32" t="n">
-        <v>1488.497648062825</v>
+        <v>1488.497648062824</v>
       </c>
       <c r="E32" t="n">
-        <v>1127.308809445969</v>
+        <v>1127.308809445968</v>
       </c>
       <c r="F32" t="n">
-        <v>740.9223186377495</v>
+        <v>740.9223186377487</v>
       </c>
       <c r="G32" t="n">
-        <v>351.2982658672152</v>
+        <v>351.298265867215</v>
       </c>
       <c r="H32" t="n">
-        <v>87.00873073417414</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="I32" t="n">
-        <v>87.00873073417414</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J32" t="n">
-        <v>346.5103443388143</v>
+        <v>346.5103443388132</v>
       </c>
       <c r="K32" t="n">
-        <v>786.174512524391</v>
+        <v>786.1745125243897</v>
       </c>
       <c r="L32" t="n">
-        <v>1368.518552781713</v>
+        <v>1368.518552781711</v>
       </c>
       <c r="M32" t="n">
-        <v>2048.15794069606</v>
+        <v>2048.157940696058</v>
       </c>
       <c r="N32" t="n">
-        <v>2743.408412826799</v>
+        <v>2743.408412826796</v>
       </c>
       <c r="O32" t="n">
-        <v>3386.578457430121</v>
+        <v>3386.578457430119</v>
       </c>
       <c r="P32" t="n">
-        <v>3901.008209375217</v>
+        <v>3901.008209375215</v>
       </c>
       <c r="Q32" t="n">
-        <v>4239.150782536623</v>
+        <v>4239.150782536621</v>
       </c>
       <c r="R32" t="n">
-        <v>4350.436536708707</v>
+        <v>4350.436536708705</v>
       </c>
       <c r="S32" t="n">
-        <v>4284.091491514898</v>
+        <v>4284.091491514897</v>
       </c>
       <c r="T32" t="n">
         <v>4106.429582727495</v>
       </c>
       <c r="U32" t="n">
-        <v>3877.566438654967</v>
+        <v>3877.566438654966</v>
       </c>
       <c r="V32" t="n">
-        <v>3571.102965292785</v>
+        <v>3571.102965292784</v>
       </c>
       <c r="W32" t="n">
-        <v>3242.933724004059</v>
+        <v>3242.933724004058</v>
       </c>
       <c r="X32" t="n">
-        <v>2894.067379724367</v>
+        <v>2894.067379724366</v>
       </c>
       <c r="Y32" t="n">
-        <v>2528.527461729944</v>
+        <v>2528.527461729943</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5595451115086</v>
+        <v>941.5595451115083</v>
       </c>
       <c r="C33" t="n">
-        <v>767.1065158303816</v>
+        <v>767.1065158303813</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1721061691303</v>
+        <v>618.1721061691301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9346511636747</v>
+        <v>458.9346511636746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.4000931905597</v>
+        <v>312.4000931905596</v>
       </c>
       <c r="G33" t="n">
         <v>176.491239190213</v>
       </c>
       <c r="H33" t="n">
-        <v>90.37640649392135</v>
+        <v>90.37640649392131</v>
       </c>
       <c r="I33" t="n">
-        <v>87.00873073417414</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J33" t="n">
         <v>222.748267076078</v>
@@ -6789,25 +6789,25 @@
         <v>1556.349755320833</v>
       </c>
       <c r="N33" t="n">
-        <v>2037.739369753607</v>
+        <v>2145.663633191914</v>
       </c>
       <c r="O33" t="n">
-        <v>2554.626640995707</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.626640995707</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="Q33" t="n">
-        <v>2554.626640995707</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="R33" t="n">
-        <v>2554.626640995707</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="S33" t="n">
         <v>2433.626177811092</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.81410831134</v>
+        <v>2242.814108311339</v>
       </c>
       <c r="U33" t="n">
         <v>2014.776146062007</v>
@@ -6822,7 +6822,7 @@
         <v>1317.53518089653</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.774882131577</v>
+        <v>1109.774882131576</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.5776542781047</v>
+        <v>802.4047224364738</v>
       </c>
       <c r="C34" t="n">
-        <v>646.240885331586</v>
+        <v>658.0679534899552</v>
       </c>
       <c r="D34" t="n">
-        <v>520.7236599006386</v>
+        <v>532.5507280590078</v>
       </c>
       <c r="E34" t="n">
-        <v>520.7236599006386</v>
+        <v>409.2370484580031</v>
       </c>
       <c r="F34" t="n">
-        <v>409.2370484580034</v>
+        <v>409.2370484580031</v>
       </c>
       <c r="G34" t="n">
-        <v>266.5144505414353</v>
+        <v>266.5144505414351</v>
       </c>
       <c r="H34" t="n">
-        <v>148.2825557708952</v>
+        <v>148.2825557708951</v>
       </c>
       <c r="I34" t="n">
-        <v>87.00873073417414</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J34" t="n">
-        <v>182.6297633125071</v>
+        <v>182.6297633125072</v>
       </c>
       <c r="K34" t="n">
-        <v>454.0912674400558</v>
+        <v>454.0912674400561</v>
       </c>
       <c r="L34" t="n">
-        <v>850.2524991645585</v>
+        <v>850.2524991645589</v>
       </c>
       <c r="M34" t="n">
-        <v>1277.027486897005</v>
+        <v>1277.027486897006</v>
       </c>
       <c r="N34" t="n">
-        <v>1699.662614924378</v>
+        <v>1699.662614924379</v>
       </c>
       <c r="O34" t="n">
-        <v>2075.858769574505</v>
+        <v>2075.858769574506</v>
       </c>
       <c r="P34" t="n">
-        <v>2377.718600906759</v>
+        <v>2377.71860090676</v>
       </c>
       <c r="Q34" t="n">
-        <v>2510.693071882215</v>
+        <v>2510.693071882216</v>
       </c>
       <c r="R34" t="n">
-        <v>2462.585293178838</v>
+        <v>2462.585293178839</v>
       </c>
       <c r="S34" t="n">
-        <v>2302.135559371429</v>
+        <v>2302.13555937143</v>
       </c>
       <c r="T34" t="n">
-        <v>2106.595518120912</v>
+        <v>2106.595518120914</v>
       </c>
       <c r="U34" t="n">
-        <v>1842.112837485798</v>
+        <v>1853.939905644167</v>
       </c>
       <c r="V34" t="n">
-        <v>1612.027763261299</v>
+        <v>1623.854831419669</v>
       </c>
       <c r="W34" t="n">
-        <v>1347.210007205727</v>
+        <v>1359.037075364096</v>
       </c>
       <c r="X34" t="n">
-        <v>1143.819870289098</v>
+        <v>1155.646938447467</v>
       </c>
       <c r="Y34" t="n">
-        <v>947.626705126956</v>
+        <v>959.4537732853252</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2166.527035647211</v>
+        <v>2166.527035647209</v>
       </c>
       <c r="C35" t="n">
-        <v>1822.163932688187</v>
+        <v>1822.163932688186</v>
       </c>
       <c r="D35" t="n">
-        <v>1488.497648062825</v>
+        <v>1488.497648062824</v>
       </c>
       <c r="E35" t="n">
-        <v>1127.308809445969</v>
+        <v>1127.308809445968</v>
       </c>
       <c r="F35" t="n">
-        <v>740.9223186377494</v>
+        <v>740.922318637749</v>
       </c>
       <c r="G35" t="n">
-        <v>351.2982658672152</v>
+        <v>351.298265867215</v>
       </c>
       <c r="H35" t="n">
-        <v>87.00873073417414</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="I35" t="n">
-        <v>87.00873073417414</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J35" t="n">
-        <v>346.5103443388143</v>
+        <v>346.5103443388132</v>
       </c>
       <c r="K35" t="n">
-        <v>786.174512524391</v>
+        <v>786.1745125243897</v>
       </c>
       <c r="L35" t="n">
-        <v>1368.518552781712</v>
+        <v>1368.51855278171</v>
       </c>
       <c r="M35" t="n">
-        <v>2048.157940696059</v>
+        <v>2048.157940696057</v>
       </c>
       <c r="N35" t="n">
-        <v>2743.408412826798</v>
+        <v>2743.408412826796</v>
       </c>
       <c r="O35" t="n">
-        <v>3386.578457430121</v>
+        <v>3386.578457430119</v>
       </c>
       <c r="P35" t="n">
-        <v>3901.008209375216</v>
+        <v>3901.008209375215</v>
       </c>
       <c r="Q35" t="n">
-        <v>4239.150782536622</v>
+        <v>4239.150782536621</v>
       </c>
       <c r="R35" t="n">
-        <v>4350.436536708707</v>
+        <v>4350.436536708705</v>
       </c>
       <c r="S35" t="n">
-        <v>4284.091491514899</v>
+        <v>4284.091491514897</v>
       </c>
       <c r="T35" t="n">
-        <v>4106.429582727496</v>
+        <v>4106.429582727495</v>
       </c>
       <c r="U35" t="n">
-        <v>3877.566438654967</v>
+        <v>3877.566438654966</v>
       </c>
       <c r="V35" t="n">
-        <v>3571.102965292785</v>
+        <v>3571.102965292783</v>
       </c>
       <c r="W35" t="n">
-        <v>3242.933724004059</v>
+        <v>3242.933724004058</v>
       </c>
       <c r="X35" t="n">
-        <v>2894.067379724368</v>
+        <v>2894.067379724366</v>
       </c>
       <c r="Y35" t="n">
-        <v>2528.527461729944</v>
+        <v>2528.527461729943</v>
       </c>
     </row>
     <row r="36">
@@ -6990,61 +6990,61 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5595451115086</v>
+        <v>941.5595451115083</v>
       </c>
       <c r="C36" t="n">
-        <v>767.1065158303816</v>
+        <v>767.1065158303813</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1721061691303</v>
+        <v>618.1721061691301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9346511636747</v>
+        <v>458.9346511636746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.4000931905597</v>
+        <v>312.4000931905596</v>
       </c>
       <c r="G36" t="n">
         <v>176.491239190213</v>
       </c>
       <c r="H36" t="n">
-        <v>90.37640649392135</v>
+        <v>90.37640649392131</v>
       </c>
       <c r="I36" t="n">
-        <v>87.00873073417414</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J36" t="n">
-        <v>87.00873073417414</v>
+        <v>222.748267076078</v>
       </c>
       <c r="K36" t="n">
-        <v>397.1640433426637</v>
+        <v>532.9035796845676</v>
       </c>
       <c r="L36" t="n">
-        <v>860.5286778428292</v>
+        <v>888.3439507464267</v>
       </c>
       <c r="M36" t="n">
-        <v>1420.610218978929</v>
+        <v>1448.425491882527</v>
       </c>
       <c r="N36" t="n">
-        <v>2009.924096850009</v>
+        <v>2037.739369753607</v>
       </c>
       <c r="O36" t="n">
-        <v>2526.811368092109</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.626640995707</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2554.626640995707</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="R36" t="n">
-        <v>2554.626640995707</v>
+        <v>2554.626640995706</v>
       </c>
       <c r="S36" t="n">
         <v>2433.626177811092</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.81410831134</v>
+        <v>2242.814108311339</v>
       </c>
       <c r="U36" t="n">
         <v>2014.776146062007</v>
@@ -7059,7 +7059,7 @@
         <v>1317.53518089653</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.774882131577</v>
+        <v>1109.774882131576</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.5776542781039</v>
+        <v>790.5776542781057</v>
       </c>
       <c r="C37" t="n">
-        <v>646.2408853315852</v>
+        <v>646.2408853315872</v>
       </c>
       <c r="D37" t="n">
-        <v>520.7236599006377</v>
+        <v>520.7236599006397</v>
       </c>
       <c r="E37" t="n">
-        <v>397.4099802996328</v>
+        <v>470.2537569378042</v>
       </c>
       <c r="F37" t="n">
-        <v>397.4099802996328</v>
+        <v>347.9632234212821</v>
       </c>
       <c r="G37" t="n">
-        <v>254.6873823830647</v>
+        <v>205.2406255047142</v>
       </c>
       <c r="H37" t="n">
-        <v>136.4554876125243</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="I37" t="n">
-        <v>87.00873073417414</v>
+        <v>87.00873073417409</v>
       </c>
       <c r="J37" t="n">
-        <v>182.6297633125071</v>
+        <v>182.6297633125072</v>
       </c>
       <c r="K37" t="n">
-        <v>454.091267440056</v>
+        <v>454.0912674400561</v>
       </c>
       <c r="L37" t="n">
-        <v>850.2524991645585</v>
+        <v>850.2524991645587</v>
       </c>
       <c r="M37" t="n">
         <v>1277.027486897005</v>
@@ -7111,34 +7111,34 @@
         <v>2075.858769574505</v>
       </c>
       <c r="P37" t="n">
-        <v>2377.718600906759</v>
+        <v>2377.71860090676</v>
       </c>
       <c r="Q37" t="n">
         <v>2510.693071882215</v>
       </c>
       <c r="R37" t="n">
-        <v>2462.585293178838</v>
+        <v>2462.585293178839</v>
       </c>
       <c r="S37" t="n">
-        <v>2302.135559371429</v>
+        <v>2302.13555937143</v>
       </c>
       <c r="T37" t="n">
-        <v>2106.595518120912</v>
+        <v>2106.595518120913</v>
       </c>
       <c r="U37" t="n">
-        <v>1842.112837485798</v>
+        <v>1842.112837485799</v>
       </c>
       <c r="V37" t="n">
-        <v>1612.027763261299</v>
+        <v>1612.0277632613</v>
       </c>
       <c r="W37" t="n">
-        <v>1347.210007205727</v>
+        <v>1347.210007205728</v>
       </c>
       <c r="X37" t="n">
-        <v>1143.819870289098</v>
+        <v>1143.819870289099</v>
       </c>
       <c r="Y37" t="n">
-        <v>947.6267051269554</v>
+        <v>947.6267051269571</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7160,37 @@
         <v>1127.308809445969</v>
       </c>
       <c r="F38" t="n">
-        <v>740.9223186377494</v>
+        <v>740.92231863775</v>
       </c>
       <c r="G38" t="n">
-        <v>351.2982658672152</v>
+        <v>351.2982658672158</v>
       </c>
       <c r="H38" t="n">
-        <v>87.00873073417409</v>
+        <v>87.00873073417478</v>
       </c>
       <c r="I38" t="n">
         <v>87.00873073417414</v>
       </c>
       <c r="J38" t="n">
-        <v>346.5103443388134</v>
+        <v>346.510344338813</v>
       </c>
       <c r="K38" t="n">
-        <v>786.1745125243901</v>
+        <v>786.1745125243892</v>
       </c>
       <c r="L38" t="n">
-        <v>1368.518552781711</v>
+        <v>1368.51855278171</v>
       </c>
       <c r="M38" t="n">
-        <v>2048.157940696059</v>
+        <v>2048.157940696057</v>
       </c>
       <c r="N38" t="n">
-        <v>2743.408412826797</v>
+        <v>2743.408412826796</v>
       </c>
       <c r="O38" t="n">
-        <v>3386.578457430121</v>
+        <v>3386.578457430119</v>
       </c>
       <c r="P38" t="n">
-        <v>3901.008209375217</v>
+        <v>3901.008209375215</v>
       </c>
       <c r="Q38" t="n">
         <v>4239.150782536623</v>
@@ -7251,25 +7251,25 @@
         <v>87.00873073417414</v>
       </c>
       <c r="J39" t="n">
-        <v>87.00873073417414</v>
+        <v>222.748267076078</v>
       </c>
       <c r="K39" t="n">
-        <v>87.00873073417414</v>
+        <v>532.9035796845676</v>
       </c>
       <c r="L39" t="n">
-        <v>550.3733652343396</v>
+        <v>996.2682141847331</v>
       </c>
       <c r="M39" t="n">
-        <v>1110.454906370439</v>
+        <v>1556.349755320833</v>
       </c>
       <c r="N39" t="n">
-        <v>1699.76878424152</v>
+        <v>2145.663633191914</v>
       </c>
       <c r="O39" t="n">
-        <v>1944.640304156038</v>
+        <v>2554.626640995707</v>
       </c>
       <c r="P39" t="n">
-        <v>2340.154842671337</v>
+        <v>2554.626640995707</v>
       </c>
       <c r="Q39" t="n">
         <v>2554.626640995707</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.5776542781043</v>
+        <v>790.5776542781056</v>
       </c>
       <c r="C40" t="n">
-        <v>646.2408853315857</v>
+        <v>657.0448074054727</v>
       </c>
       <c r="D40" t="n">
-        <v>520.7236599006382</v>
+        <v>531.5275819745253</v>
       </c>
       <c r="E40" t="n">
-        <v>520.7236599006382</v>
+        <v>531.5275819745253</v>
       </c>
       <c r="F40" t="n">
-        <v>409.2370484580035</v>
+        <v>409.2370484580033</v>
       </c>
       <c r="G40" t="n">
-        <v>266.5144505414354</v>
+        <v>266.5144505414352</v>
       </c>
       <c r="H40" t="n">
         <v>148.2825557708952</v>
@@ -7330,52 +7330,52 @@
         <v>87.00873073417414</v>
       </c>
       <c r="J40" t="n">
-        <v>182.629763312507</v>
+        <v>182.6297633125073</v>
       </c>
       <c r="K40" t="n">
-        <v>454.0912674400558</v>
+        <v>454.0912674400562</v>
       </c>
       <c r="L40" t="n">
-        <v>850.2524991645583</v>
+        <v>850.2524991645588</v>
       </c>
       <c r="M40" t="n">
         <v>1277.027486897005</v>
       </c>
       <c r="N40" t="n">
-        <v>1699.662614924378</v>
+        <v>1699.662614924379</v>
       </c>
       <c r="O40" t="n">
         <v>2075.858769574505</v>
       </c>
       <c r="P40" t="n">
-        <v>2377.718600906759</v>
+        <v>2377.71860090676</v>
       </c>
       <c r="Q40" t="n">
         <v>2510.693071882215</v>
       </c>
       <c r="R40" t="n">
-        <v>2462.585293178838</v>
+        <v>2462.585293178839</v>
       </c>
       <c r="S40" t="n">
-        <v>2302.135559371428</v>
+        <v>2302.135559371429</v>
       </c>
       <c r="T40" t="n">
-        <v>2106.595518120911</v>
+        <v>2106.595518120913</v>
       </c>
       <c r="U40" t="n">
-        <v>1842.112837485797</v>
+        <v>1842.112837485799</v>
       </c>
       <c r="V40" t="n">
-        <v>1612.027763261299</v>
+        <v>1612.0277632613</v>
       </c>
       <c r="W40" t="n">
-        <v>1347.210007205726</v>
+        <v>1347.210007205728</v>
       </c>
       <c r="X40" t="n">
-        <v>1143.819870289097</v>
+        <v>1143.819870289099</v>
       </c>
       <c r="Y40" t="n">
-        <v>947.6267051269558</v>
+        <v>947.6267051269569</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1127.308809445969</v>
       </c>
       <c r="F41" t="n">
-        <v>740.9223186377494</v>
+        <v>740.92231863775</v>
       </c>
       <c r="G41" t="n">
-        <v>351.2982658672152</v>
+        <v>351.2982658672158</v>
       </c>
       <c r="H41" t="n">
-        <v>87.00873073417409</v>
+        <v>87.00873073417478</v>
       </c>
       <c r="I41" t="n">
         <v>87.00873073417414</v>
       </c>
       <c r="J41" t="n">
-        <v>346.5103443388134</v>
+        <v>346.5103443388132</v>
       </c>
       <c r="K41" t="n">
-        <v>786.1745125243901</v>
+        <v>786.1745125243897</v>
       </c>
       <c r="L41" t="n">
-        <v>1368.518552781711</v>
+        <v>1368.518552781713</v>
       </c>
       <c r="M41" t="n">
-        <v>2048.157940696059</v>
+        <v>2048.15794069606</v>
       </c>
       <c r="N41" t="n">
-        <v>2743.408412826797</v>
+        <v>2743.408412826799</v>
       </c>
       <c r="O41" t="n">
         <v>3386.578457430121</v>
@@ -7488,16 +7488,16 @@
         <v>87.00873073417414</v>
       </c>
       <c r="J42" t="n">
-        <v>222.748267076078</v>
+        <v>114.8240036377721</v>
       </c>
       <c r="K42" t="n">
-        <v>532.9035796845676</v>
+        <v>424.9793162462616</v>
       </c>
       <c r="L42" t="n">
-        <v>996.2682141847331</v>
+        <v>888.3439507464271</v>
       </c>
       <c r="M42" t="n">
-        <v>1556.349755320833</v>
+        <v>1448.425491882527</v>
       </c>
       <c r="N42" t="n">
         <v>2037.739369753607</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.5776542781045</v>
+        <v>790.5776542781052</v>
       </c>
       <c r="C43" t="n">
-        <v>646.2408853315859</v>
+        <v>646.2408853315866</v>
       </c>
       <c r="D43" t="n">
-        <v>520.7236599006384</v>
+        <v>520.7236599006392</v>
       </c>
       <c r="E43" t="n">
-        <v>520.7236599006384</v>
+        <v>397.4099802996344</v>
       </c>
       <c r="F43" t="n">
-        <v>409.2370484580035</v>
+        <v>291.0051536874636</v>
       </c>
       <c r="G43" t="n">
-        <v>266.5144505414354</v>
+        <v>148.2825557708952</v>
       </c>
       <c r="H43" t="n">
         <v>148.2825557708952</v>
@@ -7573,7 +7573,7 @@
         <v>454.0912674400561</v>
       </c>
       <c r="L43" t="n">
-        <v>850.2524991645586</v>
+        <v>850.2524991645587</v>
       </c>
       <c r="M43" t="n">
         <v>1277.027486897005</v>
@@ -7585,13 +7585,13 @@
         <v>2075.858769574505</v>
       </c>
       <c r="P43" t="n">
-        <v>2377.718600906759</v>
+        <v>2377.71860090676</v>
       </c>
       <c r="Q43" t="n">
         <v>2510.693071882215</v>
       </c>
       <c r="R43" t="n">
-        <v>2462.585293178838</v>
+        <v>2462.585293178839</v>
       </c>
       <c r="S43" t="n">
         <v>2302.135559371429</v>
@@ -7600,19 +7600,19 @@
         <v>2106.595518120912</v>
       </c>
       <c r="U43" t="n">
-        <v>1842.112837485798</v>
+        <v>1842.112837485799</v>
       </c>
       <c r="V43" t="n">
-        <v>1612.027763261299</v>
+        <v>1612.0277632613</v>
       </c>
       <c r="W43" t="n">
-        <v>1347.210007205727</v>
+        <v>1347.210007205728</v>
       </c>
       <c r="X43" t="n">
         <v>1143.819870289098</v>
       </c>
       <c r="Y43" t="n">
-        <v>947.626705126956</v>
+        <v>947.6267051269566</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2166.527035647211</v>
       </c>
       <c r="C44" t="n">
-        <v>1822.163932688187</v>
+        <v>1822.163932688188</v>
       </c>
       <c r="D44" t="n">
         <v>1488.497648062825</v>
@@ -7634,43 +7634,43 @@
         <v>1127.308809445969</v>
       </c>
       <c r="F44" t="n">
-        <v>740.9223186377494</v>
+        <v>740.9223186377503</v>
       </c>
       <c r="G44" t="n">
         <v>351.2982658672152</v>
       </c>
       <c r="H44" t="n">
-        <v>87.00873073417415</v>
+        <v>87.00873073417414</v>
       </c>
       <c r="I44" t="n">
-        <v>87.00873073417415</v>
+        <v>87.00873073417414</v>
       </c>
       <c r="J44" t="n">
-        <v>346.5103443388132</v>
+        <v>346.5103443388143</v>
       </c>
       <c r="K44" t="n">
-        <v>786.1745125243897</v>
+        <v>786.174512524391</v>
       </c>
       <c r="L44" t="n">
-        <v>1368.518552781711</v>
+        <v>1368.518552781713</v>
       </c>
       <c r="M44" t="n">
-        <v>2048.157940696058</v>
+        <v>2048.15794069606</v>
       </c>
       <c r="N44" t="n">
-        <v>2743.4084128268</v>
+        <v>2743.408412826798</v>
       </c>
       <c r="O44" t="n">
-        <v>3386.578457430122</v>
+        <v>3386.578457430121</v>
       </c>
       <c r="P44" t="n">
-        <v>3901.008209375218</v>
+        <v>3901.008209375217</v>
       </c>
       <c r="Q44" t="n">
         <v>4239.150782536623</v>
       </c>
       <c r="R44" t="n">
-        <v>4350.436536708708</v>
+        <v>4350.436536708707</v>
       </c>
       <c r="S44" t="n">
         <v>4284.091491514899</v>
@@ -7679,7 +7679,7 @@
         <v>4106.429582727496</v>
       </c>
       <c r="U44" t="n">
-        <v>3877.566438654967</v>
+        <v>3877.566438654968</v>
       </c>
       <c r="V44" t="n">
         <v>3571.102965292785</v>
@@ -7716,34 +7716,34 @@
         <v>312.4000931905597</v>
       </c>
       <c r="G45" t="n">
-        <v>176.4912391902131</v>
+        <v>176.491239190213</v>
       </c>
       <c r="H45" t="n">
-        <v>90.37640649392137</v>
+        <v>90.37640649392135</v>
       </c>
       <c r="I45" t="n">
-        <v>87.00873073417415</v>
+        <v>87.00873073417414</v>
       </c>
       <c r="J45" t="n">
         <v>222.748267076078</v>
       </c>
       <c r="K45" t="n">
-        <v>222.748267076078</v>
+        <v>532.9035796845676</v>
       </c>
       <c r="L45" t="n">
-        <v>250.8572280296163</v>
+        <v>996.2682141847331</v>
       </c>
       <c r="M45" t="n">
-        <v>810.9387691657162</v>
+        <v>996.2682141847331</v>
       </c>
       <c r="N45" t="n">
-        <v>1400.252647036797</v>
+        <v>1585.582092055814</v>
       </c>
       <c r="O45" t="n">
-        <v>1917.139918278896</v>
+        <v>2102.469363297912</v>
       </c>
       <c r="P45" t="n">
-        <v>2312.654456794194</v>
+        <v>2497.983901813211</v>
       </c>
       <c r="Q45" t="n">
         <v>2527.126255118564</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.5776542781038</v>
+        <v>790.577654278105</v>
       </c>
       <c r="C46" t="n">
-        <v>646.2408853315851</v>
+        <v>646.2408853315864</v>
       </c>
       <c r="D46" t="n">
-        <v>520.7236599006376</v>
+        <v>593.5674365388093</v>
       </c>
       <c r="E46" t="n">
-        <v>409.2370484580035</v>
+        <v>470.2537569378044</v>
       </c>
       <c r="F46" t="n">
-        <v>409.2370484580035</v>
+        <v>347.9632234212824</v>
       </c>
       <c r="G46" t="n">
-        <v>266.5144505414354</v>
+        <v>205.2406255047142</v>
       </c>
       <c r="H46" t="n">
-        <v>148.2825557708952</v>
+        <v>87.00873073417414</v>
       </c>
       <c r="I46" t="n">
-        <v>87.00873073417415</v>
+        <v>87.00873073417414</v>
       </c>
       <c r="J46" t="n">
-        <v>182.6297633125071</v>
+        <v>182.6297633125072</v>
       </c>
       <c r="K46" t="n">
-        <v>454.091267440056</v>
+        <v>454.0912674400561</v>
       </c>
       <c r="L46" t="n">
-        <v>850.2524991645585</v>
+        <v>850.2524991645587</v>
       </c>
       <c r="M46" t="n">
         <v>1277.027486897005</v>
@@ -7831,25 +7831,25 @@
         <v>2462.585293178838</v>
       </c>
       <c r="S46" t="n">
-        <v>2302.135559371429</v>
+        <v>2302.135559371428</v>
       </c>
       <c r="T46" t="n">
-        <v>2106.595518120912</v>
+        <v>2106.595518120911</v>
       </c>
       <c r="U46" t="n">
-        <v>1842.112837485797</v>
+        <v>1842.112837485798</v>
       </c>
       <c r="V46" t="n">
         <v>1612.027763261299</v>
       </c>
       <c r="W46" t="n">
-        <v>1347.210007205726</v>
+        <v>1347.210007205727</v>
       </c>
       <c r="X46" t="n">
-        <v>1143.819870289097</v>
+        <v>1143.819870289098</v>
       </c>
       <c r="Y46" t="n">
-        <v>947.6267051269552</v>
+        <v>947.6267051269564</v>
       </c>
     </row>
   </sheetData>
@@ -8219,13 +8219,13 @@
         <v>73.44907330703683</v>
       </c>
       <c r="L5" t="n">
-        <v>67.42378396612888</v>
+        <v>53.84556332150555</v>
       </c>
       <c r="M5" t="n">
         <v>27.92423337288395</v>
       </c>
       <c r="N5" t="n">
-        <v>37.86559935695391</v>
+        <v>37.29388480349608</v>
       </c>
       <c r="O5" t="n">
         <v>50.01392522225433</v>
@@ -8234,7 +8234,7 @@
         <v>79.60851675810505</v>
       </c>
       <c r="Q5" t="n">
-        <v>97.81600865869628</v>
+        <v>111.9659438567774</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8298,7 +8298,7 @@
         <v>38.24118120917458</v>
       </c>
       <c r="L6" t="n">
-        <v>18.2077624239691</v>
+        <v>18.77947697742692</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>9.992908518100506</v>
+        <v>9.421193964642679</v>
       </c>
       <c r="P6" t="n">
         <v>16.1919693400548</v>
@@ -8374,19 +8374,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>83.0847116313667</v>
+        <v>68.93477643328555</v>
       </c>
       <c r="L7" t="n">
-        <v>72.15483915295134</v>
+        <v>58.00490395487019</v>
       </c>
       <c r="M7" t="n">
-        <v>57.86684336893533</v>
+        <v>72.01677856701649</v>
       </c>
       <c r="N7" t="n">
-        <v>48.55400431788362</v>
+        <v>62.13222496250695</v>
       </c>
       <c r="O7" t="n">
-        <v>78.94397395947387</v>
+        <v>79.51568851293169</v>
       </c>
       <c r="P7" t="n">
         <v>89.33614573921847</v>
@@ -8617,16 +8617,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>154.1946371899309</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
-        <v>163.0416663658825</v>
+        <v>98.86065188594094</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8099310773590673</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>66.52635095034111</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>66.52635095034287</v>
+        <v>66.52635095034111</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>66.52635095034287</v>
+        <v>66.52635095034111</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>157.8821867350901</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>46.31658373883408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>45.39044159700445</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7113198338592</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>350.1216792341613</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9.173801452117658</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>340.9478777820416</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.01450662792821</v>
+        <v>59.78602681429084</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>71.98012075791731</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.1986563109095</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1912736703374</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>116.466001729846</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>65.20247656642758</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>65.20247656642739</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.9193729313828</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>37.79709916485603</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.60726086459185</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>52.28402067108772</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>206.0135553022076</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>65.20247656642938</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>65.20247656642668</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>145.9526916921473</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>45.57394210382829</v>
+        <v>65.31840654109865</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>52.28402067108777</v>
+        <v>52.28402067108772</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>126.2082272548767</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1037588894846</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>121.7068955775796</v>
+        <v>121.7068955775795</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>122.1037588894836</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>118.0857065309626</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>125.7249479361017</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>11.3691112300642</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>232.4415432369984</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.9193729313828</v>
       </c>
       <c r="E31" t="n">
-        <v>118.0857065309624</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>125.7249479361017</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>65.31840654109865</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>49.57287499458114</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.0805428049948</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>10.69588285314797</v>
+        <v>121.0676281813568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>11.7087974767839</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>72.11533887178747</v>
       </c>
       <c r="F37" t="n">
-        <v>121.0676281813569</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>11.70879747678723</v>
+        <v>60.66108678635376</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>10.69588285314694</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>122.0805428049948</v>
       </c>
       <c r="F40" t="n">
-        <v>10.69588285314864</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.0805428049948</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>10.6958828531484</v>
+        <v>15.72684983530783</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>117.0495758228347</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>72.11533887178861</v>
       </c>
       <c r="E46" t="n">
-        <v>11.70879747678711</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>121.0676281813569</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.66108678635383</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>946281.2376802046</v>
+        <v>946281.2376802047</v>
       </c>
     </row>
     <row r="6">
@@ -26314,25 +26314,25 @@
         <v>307256.8006234645</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>255747.8242281904</v>
+        <v>255747.8242281905</v>
       </c>
       <c r="F2" t="n">
-        <v>291019.0986372125</v>
+        <v>291019.0986372122</v>
       </c>
       <c r="G2" t="n">
-        <v>303750.0738833948</v>
+        <v>303750.0738833949</v>
       </c>
       <c r="H2" t="n">
-        <v>303750.0738833948</v>
+        <v>303750.0738833951</v>
       </c>
       <c r="I2" t="n">
-        <v>305696.3678089027</v>
+        <v>305696.3678089028</v>
       </c>
       <c r="J2" t="n">
         <v>305696.3678089028</v>
@@ -26341,19 +26341,19 @@
         <v>305696.3678089028</v>
       </c>
       <c r="L2" t="n">
-        <v>306695.675868183</v>
+        <v>306695.6758681831</v>
       </c>
       <c r="M2" t="n">
         <v>306695.675868183</v>
       </c>
       <c r="N2" t="n">
-        <v>306695.6758681829</v>
+        <v>306695.675868183</v>
       </c>
       <c r="O2" t="n">
-        <v>306695.6758681829</v>
+        <v>306695.6758681831</v>
       </c>
       <c r="P2" t="n">
-        <v>306695.6758681831</v>
+        <v>306695.6758681832</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>277988.0989129776</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336674</v>
+        <v>627134.6436336677</v>
       </c>
       <c r="F3" t="n">
-        <v>238670.6912416414</v>
+        <v>238670.6912416406</v>
       </c>
       <c r="G3" t="n">
-        <v>15756.88006946361</v>
+        <v>15756.88006946383</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4467.817916672254</v>
+        <v>4467.817916672073</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>3641.74052205975</v>
       </c>
       <c r="L3" t="n">
-        <v>59110.29573986706</v>
+        <v>59110.29573986713</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678773</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
-        <v>62752.17813929604</v>
+        <v>62752.17813929586</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26430,34 +26430,34 @@
         <v>9293.056690315834</v>
       </c>
       <c r="G4" t="n">
-        <v>28718.80619077415</v>
+        <v>28718.8061907742</v>
       </c>
       <c r="H4" t="n">
-        <v>28718.80619077415</v>
+        <v>28718.8061907742</v>
       </c>
       <c r="I4" t="n">
-        <v>30580.17357455414</v>
+        <v>30580.17357455418</v>
       </c>
       <c r="J4" t="n">
-        <v>30580.17357455417</v>
+        <v>30580.17357455418</v>
       </c>
       <c r="K4" t="n">
         <v>30580.17357455417</v>
       </c>
       <c r="L4" t="n">
+        <v>33213.64446889295</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33213.64446889294</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33213.64446889289</v>
+      </c>
+      <c r="O4" t="n">
+        <v>33213.64446889289</v>
+      </c>
+      <c r="P4" t="n">
         <v>33213.64446889288</v>
-      </c>
-      <c r="M4" t="n">
-        <v>33213.64446889282</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33213.64446889284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33213.64446889285</v>
-      </c>
-      <c r="P4" t="n">
-        <v>33213.64446889285</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>40739.27482484731</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>94441.55393247328</v>
+        <v>94441.55393247324</v>
       </c>
       <c r="G5" t="n">
-        <v>96097.38537067297</v>
+        <v>96097.38537067291</v>
       </c>
       <c r="H5" t="n">
-        <v>96097.38537067291</v>
+        <v>96097.38537067294</v>
       </c>
       <c r="I5" t="n">
-        <v>97118.90427791857</v>
+        <v>97118.90427791855</v>
       </c>
       <c r="J5" t="n">
-        <v>97118.90427791858</v>
+        <v>97118.90427791855</v>
       </c>
       <c r="K5" t="n">
-        <v>97118.90427791858</v>
+        <v>97118.90427791855</v>
       </c>
       <c r="L5" t="n">
+        <v>96488.92158513457</v>
+      </c>
+      <c r="M5" t="n">
+        <v>96488.92158513457</v>
+      </c>
+      <c r="N5" t="n">
         <v>96488.92158513459</v>
       </c>
-      <c r="M5" t="n">
-        <v>96488.92158513458</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96488.92158513458</v>
-      </c>
       <c r="O5" t="n">
-        <v>96488.92158513458</v>
+        <v>96488.92158513459</v>
       </c>
       <c r="P5" t="n">
         <v>96488.92158513459</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-323666.0513222783</v>
+        <v>-323670.2770761159</v>
       </c>
       <c r="C6" t="n">
-        <v>-138283.5533106749</v>
+        <v>-138283.5533106751</v>
       </c>
       <c r="D6" t="n">
         <v>-299665.7864287451</v>
       </c>
       <c r="E6" t="n">
-        <v>-454853.6191039494</v>
+        <v>-455201.2380337559</v>
       </c>
       <c r="F6" t="n">
-        <v>-51386.20322721805</v>
+        <v>-51498.68032763006</v>
       </c>
       <c r="G6" t="n">
-        <v>163177.0022524841</v>
+        <v>163149.3983203793</v>
       </c>
       <c r="H6" t="n">
-        <v>178933.882321948</v>
+        <v>178906.2783898432</v>
       </c>
       <c r="I6" t="n">
-        <v>173529.4720397577</v>
+        <v>173514.84340049</v>
       </c>
       <c r="J6" t="n">
-        <v>177997.28995643</v>
+        <v>177982.661317162</v>
       </c>
       <c r="K6" t="n">
-        <v>174355.5494343703</v>
+        <v>174340.9207951023</v>
       </c>
       <c r="L6" t="n">
-        <v>117882.8140742885</v>
+        <v>117874.847488749</v>
       </c>
       <c r="M6" t="n">
-        <v>16536.66794627836</v>
+        <v>16528.70136073859</v>
       </c>
       <c r="N6" t="n">
-        <v>114240.9316748595</v>
+        <v>114232.9650893201</v>
       </c>
       <c r="O6" t="n">
-        <v>176993.1098141555</v>
+        <v>176985.1432286162</v>
       </c>
       <c r="P6" t="n">
-        <v>176993.1098141558</v>
+        <v>176985.1432286162</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H2" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="I2" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="J2" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="K2" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="L2" t="n">
+        <v>24.35341984157446</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.35341984157446</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.35341984157441</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.35341984157441</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.3534198415744</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.35341984157434</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.35341984157435</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.35341984157435</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.35341984157435</v>
       </c>
     </row>
     <row r="3">
@@ -26747,10 +26747,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1298.849475894539</v>
+        <v>1298.849475894538</v>
       </c>
       <c r="G3" t="n">
-        <v>1298.849475894539</v>
+        <v>1298.849475894538</v>
       </c>
       <c r="H3" t="n">
         <v>1298.849475894538</v>
@@ -26793,34 +26793,34 @@
         <v>14.14993519808115</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
+        <v>1087.609134177176</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1087.609134177176</v>
+      </c>
+      <c r="H4" t="n">
         <v>1087.609134177177</v>
       </c>
-      <c r="G4" t="n">
-        <v>1087.609134177177</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>1104.410431993716</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1104.410431993716</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1104.410431993716</v>
+      </c>
+      <c r="L4" t="n">
         <v>1087.609134177176</v>
       </c>
-      <c r="I4" t="n">
-        <v>1104.410431993717</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1104.410431993717</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1104.410431993717</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1087.609134177177</v>
-      </c>
       <c r="M4" t="n">
-        <v>1087.609134177177</v>
+        <v>1087.609134177176</v>
       </c>
       <c r="N4" t="n">
         <v>1087.609134177177</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>261.7103645457495</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803935</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
-        <v>209.0727753012404</v>
+        <v>209.0727753012397</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,22 +27015,22 @@
         <v>14.14993519808115</v>
       </c>
       <c r="D4" t="n">
-        <v>173.3756519682387</v>
+        <v>173.3756519682389</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.875868235973</v>
       </c>
       <c r="F4" t="n">
-        <v>256.2076787748841</v>
+        <v>256.2076787748831</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.80129781654045</v>
+        <v>16.80129781653977</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,19 +27039,19 @@
         <v>14.14993519808115</v>
       </c>
       <c r="L4" t="n">
-        <v>156.5743541516985</v>
+        <v>156.5743541516986</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.875868235973</v>
       </c>
       <c r="N4" t="n">
-        <v>256.2076787748841</v>
+        <v>256.2076787748836</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>14.14993519808115</v>
       </c>
       <c r="L4" t="n">
-        <v>173.3756519682387</v>
+        <v>173.3756519682389</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.875868235973</v>
       </c>
       <c r="N4" t="n">
-        <v>256.2076787748841</v>
+        <v>256.2076787748831</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>351.1229565729264</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>394.4127828192416</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>327.668665386239</v>
+        <v>313.5187301881579</v>
       </c>
       <c r="I5" t="n">
-        <v>166.0324782421858</v>
+        <v>151.8825430441047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>71.86718221175485</v>
+        <v>77.45439939251328</v>
       </c>
       <c r="S5" t="n">
         <v>182.7505867863798</v>
@@ -27673,7 +27673,7 @@
         <v>251.2534287224722</v>
       </c>
       <c r="V5" t="n">
-        <v>313.6023232720538</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>158.5585637902346</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>61.86190431251626</v>
+        <v>47.71196911443511</v>
       </c>
       <c r="S6" t="n">
         <v>160.2263144442633</v>
       </c>
       <c r="T6" t="n">
-        <v>197.6785772732988</v>
+        <v>183.5286420752177</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9008028956399</v>
+        <v>211.7508676975587</v>
       </c>
       <c r="V6" t="n">
-        <v>218.6506519513441</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>237.5450479628385</v>
+        <v>239.2317202384497</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.2194328548345</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27822,25 +27822,25 @@
         <v>154.0423608081211</v>
       </c>
       <c r="S7" t="n">
-        <v>200.8548905783036</v>
+        <v>215.0048257763848</v>
       </c>
       <c r="T7" t="n">
-        <v>225.7361303972559</v>
+        <v>213.272867474786</v>
       </c>
       <c r="U7" t="n">
         <v>286.2908234965204</v>
       </c>
       <c r="V7" t="n">
-        <v>237.9877081257468</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>272.3730631385098</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.1213904296249</v>
+        <v>204.4347181540136</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>189.5105044445883</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H8" t="n">
-        <v>183.0604670455787</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
@@ -27910,16 +27910,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27941,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.1637893657753</v>
@@ -27980,22 +27980,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681356</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377103</v>
+        <v>45.14608227820261</v>
       </c>
       <c r="V9" t="n">
-        <v>56.78393331510293</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.0019352027142</v>
@@ -28029,10 +28029,10 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>127.3095278429244</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>98.73949432713037</v>
+        <v>212.2062139801559</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027099</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="C17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="D17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="E17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="F17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="G17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="I17" t="n">
-        <v>9.173801452117658</v>
+        <v>9.173801452117686</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="T17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="U17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="V17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="W17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="X17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="C19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="D19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="E19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="F19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="G19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="I19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="J19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="K19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="L19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="M19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="N19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="O19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="P19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="R19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="S19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="T19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="U19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="V19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="W19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="X19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.69610008682952</v>
+        <v>19.69610008682957</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="C20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="D20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="E20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="F20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="G20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="I20" t="n">
         <v>9.173801452117686</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="T20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="U20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="V20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="W20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="X20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="C22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="D22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="E22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="F22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="G22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="I22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="J22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="K22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="L22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="M22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="N22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="O22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="P22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="R22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="S22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="T22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="U22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="V22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="W22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="X22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="C23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="D23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="E23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="F23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="G23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="I23" t="n">
         <v>9.173801452117686</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="T23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="U23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="V23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="W23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="X23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="C25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="D25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="E25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="F25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="G25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="I25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="J25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="K25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="L25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="M25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="N25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="O25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="P25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="R25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="S25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="T25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="U25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="V25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="W25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="X25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="C26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="D26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="E26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="F26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="G26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="I26" t="n">
         <v>9.173801452117686</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="T26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="U26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="V26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="W26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="X26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="C28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="D28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="E28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="F28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="G28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="I28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="J28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="K28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="L28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="M28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="N28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="O28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="P28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="R28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="S28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="T28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="U28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="V28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="W28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="X28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="C29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="D29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="E29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="F29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="G29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="I29" t="n">
         <v>9.173801452117686</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="T29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="U29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="V29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="W29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="X29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="C31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="D31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="E31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="F31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="G31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="H31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="I31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="J31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="K31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="L31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="M31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="N31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="O31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="P31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="R31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="S31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="T31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="U31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="V31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="W31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="X31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.69610008682951</v>
+        <v>19.69610008682957</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="C32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="D32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="E32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="F32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="G32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="H32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="I32" t="n">
         <v>9.173801452117686</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="T32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="U32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="V32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="W32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="X32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="Y32" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="C34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="D34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="E34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="F34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="G34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="H34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="I34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="J34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="K34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="L34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="M34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="N34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="O34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="P34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="R34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="S34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="T34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="U34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="V34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="W34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="X34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.3534198415744</v>
+        <v>24.35341984157446</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="C35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="D35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="E35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="F35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="G35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="H35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="I35" t="n">
         <v>9.173801452117686</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="T35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="U35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="V35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="W35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="X35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="Y35" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="C37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="D37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="E37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="F37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="G37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="H37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="I37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="J37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="K37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="L37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="M37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="N37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="O37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="P37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="R37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="S37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="T37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="U37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="V37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="W37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="X37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.35341984157434</v>
+        <v>24.35341984157446</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="C38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="D38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="E38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="F38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="G38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="H38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="I38" t="n">
         <v>9.173801452117686</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="T38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="U38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="V38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="W38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="X38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="Y38" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="C40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="D40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="E40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="F40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="G40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="H40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="I40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="J40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="K40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="L40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="M40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="N40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="O40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="P40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="R40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="S40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="T40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="U40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="V40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="W40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="X40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="C41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="D41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="E41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="F41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="G41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="H41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="I41" t="n">
         <v>9.173801452117686</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="T41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="U41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="V41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="W41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="X41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="Y41" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="C43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="D43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="E43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="F43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="G43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="H43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="I43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="J43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="K43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="L43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="M43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="N43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="O43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="P43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="R43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="S43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="T43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="U43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="V43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="W43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="X43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.35341984157435</v>
+        <v>24.35341984157441</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="C44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="D44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="E44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="F44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="G44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="H44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="I44" t="n">
         <v>9.173801452117686</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="T44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="U44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="V44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="W44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="X44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="Y44" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="C46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="D46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="E46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="F46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="G46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="H46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="I46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="J46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="K46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="L46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="M46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="N46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="O46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="P46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="R46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="S46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="T46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="U46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="V46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="W46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="X46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.35341984157435</v>
+        <v>24.3534198415744</v>
       </c>
     </row>
   </sheetData>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.221505430731809</v>
+        <v>5.221505430731807</v>
       </c>
       <c r="H14" t="n">
-        <v>53.47474249248215</v>
+        <v>53.47474249248214</v>
       </c>
       <c r="I14" t="n">
-        <v>201.3020881182883</v>
+        <v>201.3020881182882</v>
       </c>
       <c r="J14" t="n">
-        <v>443.1687465515743</v>
+        <v>443.1687465515741</v>
       </c>
       <c r="K14" t="n">
-        <v>664.1950714344518</v>
+        <v>664.1950714344516</v>
       </c>
       <c r="L14" t="n">
-        <v>823.9927182602107</v>
+        <v>823.9927182602104</v>
       </c>
       <c r="M14" t="n">
-        <v>916.8506654639874</v>
+        <v>916.8506654639871</v>
       </c>
       <c r="N14" t="n">
-        <v>931.6862677690543</v>
+        <v>931.686267769054</v>
       </c>
       <c r="O14" t="n">
-        <v>879.7649231422148</v>
+        <v>879.7649231422145</v>
       </c>
       <c r="P14" t="n">
-        <v>750.8590078210232</v>
+        <v>750.8590078210228</v>
       </c>
       <c r="Q14" t="n">
-        <v>563.86384458294</v>
+        <v>563.8638445829398</v>
       </c>
       <c r="R14" t="n">
-        <v>327.9953905132073</v>
+        <v>327.9953905132072</v>
       </c>
       <c r="S14" t="n">
         <v>118.9850550028012</v>
       </c>
       <c r="T14" t="n">
-        <v>22.85714002302851</v>
+        <v>22.8571400230285</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4177204344585446</v>
+        <v>0.4177204344585445</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.793751702867498</v>
+        <v>2.793751702867497</v>
       </c>
       <c r="H15" t="n">
-        <v>26.98175986716768</v>
+        <v>26.98175986716767</v>
       </c>
       <c r="I15" t="n">
-        <v>96.18838099785027</v>
+        <v>96.18838099785023</v>
       </c>
       <c r="J15" t="n">
-        <v>263.9482694362666</v>
+        <v>263.9482694362665</v>
       </c>
       <c r="K15" t="n">
-        <v>451.1296335283889</v>
+        <v>451.1296335283888</v>
       </c>
       <c r="L15" t="n">
-        <v>606.5994651335767</v>
+        <v>606.5994651335766</v>
       </c>
       <c r="M15" t="n">
-        <v>707.8729643625234</v>
+        <v>707.8729643625231</v>
       </c>
       <c r="N15" t="n">
-        <v>726.6082553874551</v>
+        <v>523.5543876744503</v>
       </c>
       <c r="O15" t="n">
-        <v>156.180556857065</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>533.4840422782681</v>
+        <v>533.4840422782679</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>356.6199542116476</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.8927125510695</v>
+        <v>51.89271255106948</v>
       </c>
       <c r="T15" t="n">
-        <v>11.2607798900668</v>
+        <v>11.26077989006679</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1837994541360197</v>
+        <v>0.1837994541360196</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,37 +32151,37 @@
         <v>20.82417684303048</v>
       </c>
       <c r="I16" t="n">
-        <v>70.43596829933007</v>
+        <v>70.43596829933004</v>
       </c>
       <c r="J16" t="n">
-        <v>165.5926618693742</v>
+        <v>165.5926618693741</v>
       </c>
       <c r="K16" t="n">
-        <v>272.1196115070852</v>
+        <v>272.1196115070851</v>
       </c>
       <c r="L16" t="n">
-        <v>348.2194152258899</v>
+        <v>348.2194152258898</v>
       </c>
       <c r="M16" t="n">
-        <v>367.1485493909757</v>
+        <v>367.1485493909756</v>
       </c>
       <c r="N16" t="n">
-        <v>358.418577503816</v>
+        <v>358.4185775038159</v>
       </c>
       <c r="O16" t="n">
-        <v>331.0575680525949</v>
+        <v>331.0575680525948</v>
       </c>
       <c r="P16" t="n">
-        <v>283.2769414311628</v>
+        <v>283.2769414311627</v>
       </c>
       <c r="Q16" t="n">
-        <v>196.1262708600753</v>
+        <v>196.1262708600752</v>
       </c>
       <c r="R16" t="n">
         <v>105.3132706192522</v>
       </c>
       <c r="S16" t="n">
-        <v>40.81794172606277</v>
+        <v>40.81794172606276</v>
       </c>
       <c r="T16" t="n">
         <v>10.00752874869562</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.221505430731809</v>
+        <v>5.221505430731808</v>
       </c>
       <c r="H17" t="n">
-        <v>53.47474249248215</v>
+        <v>53.47474249248214</v>
       </c>
       <c r="I17" t="n">
-        <v>201.3020881182883</v>
+        <v>201.3020881182882</v>
       </c>
       <c r="J17" t="n">
-        <v>443.1687465515743</v>
+        <v>443.1687465515742</v>
       </c>
       <c r="K17" t="n">
-        <v>664.1950714344518</v>
+        <v>664.1950714344517</v>
       </c>
       <c r="L17" t="n">
-        <v>823.9927182602107</v>
+        <v>823.9927182602105</v>
       </c>
       <c r="M17" t="n">
-        <v>916.8506654639874</v>
+        <v>916.8506654639873</v>
       </c>
       <c r="N17" t="n">
-        <v>931.6862677690543</v>
+        <v>931.6862677690541</v>
       </c>
       <c r="O17" t="n">
-        <v>879.7649231422148</v>
+        <v>879.7649231422147</v>
       </c>
       <c r="P17" t="n">
-        <v>750.8590078210232</v>
+        <v>750.8590078210231</v>
       </c>
       <c r="Q17" t="n">
-        <v>563.86384458294</v>
+        <v>563.8638445829399</v>
       </c>
       <c r="R17" t="n">
-        <v>327.9953905132073</v>
+        <v>327.9953905132072</v>
       </c>
       <c r="S17" t="n">
         <v>118.9850550028012</v>
       </c>
       <c r="T17" t="n">
-        <v>22.85714002302851</v>
+        <v>22.8571400230285</v>
       </c>
       <c r="U17" t="n">
         <v>0.4177204344585446</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.793751702867498</v>
+        <v>2.793751702867497</v>
       </c>
       <c r="H18" t="n">
         <v>26.98175986716768</v>
       </c>
       <c r="I18" t="n">
-        <v>96.18838099785027</v>
+        <v>96.18838099785026</v>
       </c>
       <c r="J18" t="n">
         <v>263.9482694362666</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>451.1296335283889</v>
       </c>
       <c r="L18" t="n">
-        <v>411.3636173102277</v>
+        <v>606.5994651335767</v>
       </c>
       <c r="M18" t="n">
-        <v>707.8729643625234</v>
+        <v>707.8729643625232</v>
       </c>
       <c r="N18" t="n">
-        <v>726.6082553874551</v>
+        <v>726.608255387455</v>
       </c>
       <c r="O18" t="n">
-        <v>664.7045992344437</v>
+        <v>555.6901917210026</v>
       </c>
       <c r="P18" t="n">
-        <v>533.4840422782681</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.8927125510695</v>
+        <v>51.89271255106949</v>
       </c>
       <c r="T18" t="n">
-        <v>11.2607798900668</v>
+        <v>11.26077989006679</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1837994541360197</v>
+        <v>0.1837994541360196</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>20.82417684303048</v>
       </c>
       <c r="I19" t="n">
-        <v>70.43596829933007</v>
+        <v>70.43596829933006</v>
       </c>
       <c r="J19" t="n">
-        <v>165.5926618693742</v>
+        <v>165.5926618693741</v>
       </c>
       <c r="K19" t="n">
         <v>272.1196115070852</v>
@@ -32418,7 +32418,7 @@
         <v>105.3132706192522</v>
       </c>
       <c r="S19" t="n">
-        <v>40.81794172606277</v>
+        <v>40.81794172606276</v>
       </c>
       <c r="T19" t="n">
         <v>10.00752874869562</v>
@@ -32549,13 +32549,13 @@
         <v>96.18838099785026</v>
       </c>
       <c r="J21" t="n">
-        <v>263.9482694362666</v>
+        <v>154.9338619228262</v>
       </c>
       <c r="K21" t="n">
-        <v>194.0124963790866</v>
+        <v>451.1296335283889</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>606.5994651335767</v>
       </c>
       <c r="M21" t="n">
         <v>707.8729643625232</v>
@@ -32567,10 +32567,10 @@
         <v>664.7045992344435</v>
       </c>
       <c r="P21" t="n">
-        <v>533.484042278268</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>356.6199542116476</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,13 +32786,13 @@
         <v>96.18838099785026</v>
       </c>
       <c r="J24" t="n">
-        <v>263.9482694362666</v>
+        <v>154.9338619228262</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>451.1296335283889</v>
       </c>
       <c r="L24" t="n">
-        <v>166.947269631933</v>
+        <v>606.5994651335767</v>
       </c>
       <c r="M24" t="n">
         <v>707.8729643625232</v>
@@ -32804,13 +32804,13 @@
         <v>664.7045992344435</v>
       </c>
       <c r="P24" t="n">
-        <v>533.484042278268</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>356.6199542116476</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>173.4576715166329</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.89271255106949</v>
@@ -33272,10 +33272,10 @@
         <v>707.8729643625232</v>
       </c>
       <c r="N30" t="n">
-        <v>617.5938478740145</v>
+        <v>726.608255387455</v>
       </c>
       <c r="O30" t="n">
-        <v>664.7045992344435</v>
+        <v>555.6901917210031</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33509,10 +33509,10 @@
         <v>707.8729643625232</v>
       </c>
       <c r="N33" t="n">
-        <v>617.5938478740145</v>
+        <v>726.608255387455</v>
       </c>
       <c r="O33" t="n">
-        <v>664.7045992344435</v>
+        <v>555.6901917210026</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,13 +33734,13 @@
         <v>96.18838099785026</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>263.9482694362666</v>
       </c>
       <c r="K36" t="n">
         <v>451.1296335283889</v>
       </c>
       <c r="L36" t="n">
-        <v>606.5994651335767</v>
+        <v>497.5850576201359</v>
       </c>
       <c r="M36" t="n">
         <v>707.8729643625232</v>
@@ -33752,7 +33752,7 @@
         <v>664.7045992344435</v>
       </c>
       <c r="P36" t="n">
-        <v>162.0706426704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,10 +33971,10 @@
         <v>96.18838099785026</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>263.9482694362666</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>451.1296335283889</v>
       </c>
       <c r="L39" t="n">
         <v>606.5994651335767</v>
@@ -33986,13 +33986,13 @@
         <v>726.608255387455</v>
       </c>
       <c r="O39" t="n">
-        <v>389.9412140550691</v>
+        <v>555.6901917210031</v>
       </c>
       <c r="P39" t="n">
-        <v>533.484042278268</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>356.6199542116476</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34135,7 +34135,7 @@
         <v>664.1950714344517</v>
       </c>
       <c r="L41" t="n">
-        <v>823.9927182602105</v>
+        <v>823.9927182602123</v>
       </c>
       <c r="M41" t="n">
         <v>916.8506654639873</v>
@@ -34208,7 +34208,7 @@
         <v>96.18838099785026</v>
       </c>
       <c r="J42" t="n">
-        <v>263.9482694362666</v>
+        <v>154.9338619228262</v>
       </c>
       <c r="K42" t="n">
         <v>451.1296335283889</v>
@@ -34220,7 +34220,7 @@
         <v>707.8729643625232</v>
       </c>
       <c r="N42" t="n">
-        <v>617.5938478740145</v>
+        <v>726.608255387455</v>
       </c>
       <c r="O42" t="n">
         <v>664.7045992344435</v>
@@ -34378,7 +34378,7 @@
         <v>916.8506654639873</v>
       </c>
       <c r="N44" t="n">
-        <v>931.6862677690569</v>
+        <v>931.6862677690541</v>
       </c>
       <c r="O44" t="n">
         <v>879.7649231422147</v>
@@ -34448,13 +34448,13 @@
         <v>263.9482694362666</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>451.1296335283889</v>
       </c>
       <c r="L45" t="n">
-        <v>166.947269631933</v>
+        <v>606.5994651335767</v>
       </c>
       <c r="M45" t="n">
-        <v>707.8729643625232</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>726.608255387455</v>
@@ -34466,7 +34466,7 @@
         <v>533.484042278268</v>
       </c>
       <c r="Q45" t="n">
-        <v>356.6199542116476</v>
+        <v>169.4184945964796</v>
       </c>
       <c r="R45" t="n">
         <v>173.4576715166329</v>
@@ -34939,13 +34939,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>13.57822064462333</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14.14993519808115</v>
       </c>
       <c r="O5" t="n">
         <v>14.14993519808115</v>
@@ -34954,7 +34954,7 @@
         <v>14.14993519808115</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>13.57822064462333</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="M6" t="n">
         <v>14.14993519808115</v>
@@ -35027,7 +35027,7 @@
         <v>14.14993519808115</v>
       </c>
       <c r="O6" t="n">
-        <v>14.14993519808115</v>
+        <v>13.57822064462333</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>14.14993519808115</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
+        <v>13.57822064462333</v>
+      </c>
+      <c r="O7" t="n">
         <v>14.14993519808115</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>13.57822064462333</v>
       </c>
       <c r="P7" t="n">
         <v>14.14993519808115</v>
@@ -35337,16 +35337,16 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>170.3060203105424</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>100.2010091933415</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>262.122842024888</v>
+        <v>262.1228420248879</v>
       </c>
       <c r="K14" t="n">
-        <v>444.1052203894713</v>
+        <v>444.1052203894711</v>
       </c>
       <c r="L14" t="n">
-        <v>588.2263032902235</v>
+        <v>588.2263032902231</v>
       </c>
       <c r="M14" t="n">
-        <v>686.5044322367147</v>
+        <v>686.5044322367144</v>
       </c>
       <c r="N14" t="n">
-        <v>702.2732041724635</v>
+        <v>702.273204172463</v>
       </c>
       <c r="O14" t="n">
-        <v>649.666711720528</v>
+        <v>649.6667117205277</v>
       </c>
       <c r="P14" t="n">
-        <v>519.6260120657537</v>
+        <v>519.6260120657532</v>
       </c>
       <c r="Q14" t="n">
-        <v>341.5581547084905</v>
+        <v>341.5581547084903</v>
       </c>
       <c r="R14" t="n">
-        <v>112.4098526990751</v>
+        <v>112.409852699075</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.1106427695999</v>
+        <v>137.1106427695998</v>
       </c>
       <c r="K15" t="n">
-        <v>313.2881945540299</v>
+        <v>313.2881945540298</v>
       </c>
       <c r="L15" t="n">
-        <v>468.0450853537025</v>
+        <v>468.0450853537024</v>
       </c>
       <c r="M15" t="n">
-        <v>565.7389304405051</v>
+        <v>565.7389304405049</v>
       </c>
       <c r="N15" t="n">
-        <v>595.2665433041218</v>
+        <v>392.2126755911169</v>
       </c>
       <c r="O15" t="n">
-        <v>13.58431241262059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>399.5096348639379</v>
+        <v>399.5096348639377</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>216.638180125626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.23348175270138</v>
+        <v>72.23348175270132</v>
       </c>
       <c r="K16" t="n">
-        <v>249.8501196812024</v>
+        <v>249.8501196812022</v>
       </c>
       <c r="L16" t="n">
-        <v>375.8094404862061</v>
+        <v>375.809440486206</v>
       </c>
       <c r="M16" t="n">
-        <v>406.7324263528163</v>
+        <v>406.7324263528162</v>
       </c>
       <c r="N16" t="n">
-        <v>402.5507498830447</v>
+        <v>402.5507498830445</v>
       </c>
       <c r="O16" t="n">
-        <v>355.6426959666346</v>
+        <v>355.6426959666344</v>
       </c>
       <c r="P16" t="n">
-        <v>280.5555006960563</v>
+        <v>280.5555006960562</v>
       </c>
       <c r="Q16" t="n">
         <v>109.9642276083809</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>262.122842024888</v>
+        <v>262.1228420248879</v>
       </c>
       <c r="K17" t="n">
-        <v>444.1052203894713</v>
+        <v>444.1052203894712</v>
       </c>
       <c r="L17" t="n">
-        <v>588.2263032902235</v>
+        <v>588.2263032902233</v>
       </c>
       <c r="M17" t="n">
-        <v>686.5044322367147</v>
+        <v>686.5044322367146</v>
       </c>
       <c r="N17" t="n">
-        <v>702.2732041724635</v>
+        <v>702.2732041724632</v>
       </c>
       <c r="O17" t="n">
-        <v>649.666711720528</v>
+        <v>649.6667117205279</v>
       </c>
       <c r="P17" t="n">
-        <v>519.6260120657537</v>
+        <v>519.6260120657535</v>
       </c>
       <c r="Q17" t="n">
-        <v>341.5581547084905</v>
+        <v>341.5581547084904</v>
       </c>
       <c r="R17" t="n">
         <v>112.4098526990751</v>
@@ -35963,22 +35963,22 @@
         <v>137.1106427695999</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>313.2881945540299</v>
       </c>
       <c r="L18" t="n">
-        <v>272.8092375303535</v>
+        <v>468.0450853537025</v>
       </c>
       <c r="M18" t="n">
-        <v>565.7389304405051</v>
+        <v>565.7389304405049</v>
       </c>
       <c r="N18" t="n">
-        <v>595.2665433041218</v>
+        <v>595.2665433041217</v>
       </c>
       <c r="O18" t="n">
-        <v>522.1083547899992</v>
+        <v>413.0939472765582</v>
       </c>
       <c r="P18" t="n">
-        <v>399.5096348639379</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.9295818395309</v>
+        <v>91.92958183953093</v>
       </c>
       <c r="K19" t="n">
         <v>269.5462197680318</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.1106427695999</v>
+        <v>28.09623525615954</v>
       </c>
       <c r="K21" t="n">
-        <v>56.17105740472757</v>
+        <v>313.2881945540299</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>468.0450853537025</v>
       </c>
       <c r="M21" t="n">
         <v>565.7389304405049</v>
@@ -36215,10 +36215,10 @@
         <v>522.1083547899991</v>
       </c>
       <c r="P21" t="n">
-        <v>399.5096348639378</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>216.6381801256261</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.92958183953087</v>
+        <v>91.92958183953093</v>
       </c>
       <c r="K22" t="n">
         <v>269.5462197680318</v>
@@ -36285,7 +36285,7 @@
         <v>395.5055405730355</v>
       </c>
       <c r="M22" t="n">
-        <v>426.4285264396458</v>
+        <v>426.4285264396459</v>
       </c>
       <c r="N22" t="n">
         <v>422.2468499698741</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>262.932773102247</v>
+        <v>262.1228420248879</v>
       </c>
       <c r="K23" t="n">
-        <v>444.1052203894712</v>
+        <v>510.6315713398123</v>
       </c>
       <c r="L23" t="n">
         <v>588.2263032902233</v>
@@ -36379,7 +36379,7 @@
         <v>341.5581547084904</v>
       </c>
       <c r="R23" t="n">
-        <v>178.1262725720575</v>
+        <v>112.4098526990751</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.1106427695999</v>
+        <v>28.09623525615951</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>313.2881945540299</v>
       </c>
       <c r="L24" t="n">
-        <v>28.39288985205879</v>
+        <v>468.0450853537025</v>
       </c>
       <c r="M24" t="n">
         <v>565.7389304405049</v>
@@ -36452,13 +36452,13 @@
         <v>522.1083547899991</v>
       </c>
       <c r="P24" t="n">
-        <v>399.5096348639378</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>216.6381801256261</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>27.77816755266898</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.92958183953087</v>
+        <v>91.92958183953093</v>
       </c>
       <c r="K25" t="n">
         <v>269.5462197680318</v>
@@ -36522,7 +36522,7 @@
         <v>395.5055405730355</v>
       </c>
       <c r="M25" t="n">
-        <v>426.4285264396458</v>
+        <v>426.4285264396459</v>
       </c>
       <c r="N25" t="n">
         <v>422.2468499698741</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>328.6491929752308</v>
+        <v>328.649192975229</v>
       </c>
       <c r="K26" t="n">
         <v>444.1052203894712</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>91.92958183953087</v>
+        <v>91.92958183953093</v>
       </c>
       <c r="K28" t="n">
         <v>269.5462197680318</v>
@@ -36759,7 +36759,7 @@
         <v>395.5055405730355</v>
       </c>
       <c r="M28" t="n">
-        <v>426.4285264396458</v>
+        <v>426.4285264396459</v>
       </c>
       <c r="N28" t="n">
         <v>422.2468499698741</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>328.6491929752308</v>
+        <v>328.649192975229</v>
       </c>
       <c r="K29" t="n">
         <v>444.1052203894712</v>
@@ -36920,10 +36920,10 @@
         <v>565.7389304405049</v>
       </c>
       <c r="N30" t="n">
-        <v>486.2521357906812</v>
+        <v>595.2665433041217</v>
       </c>
       <c r="O30" t="n">
-        <v>522.1083547899991</v>
+        <v>413.0939472765587</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>91.92958183953087</v>
+        <v>91.92958183953093</v>
       </c>
       <c r="K31" t="n">
         <v>269.5462197680318</v>
@@ -36996,7 +36996,7 @@
         <v>395.5055405730355</v>
       </c>
       <c r="M31" t="n">
-        <v>426.4285264396458</v>
+        <v>426.4285264396459</v>
       </c>
       <c r="N31" t="n">
         <v>422.2468499698741</v>
@@ -37157,10 +37157,10 @@
         <v>565.7389304405049</v>
       </c>
       <c r="N33" t="n">
-        <v>486.2521357906812</v>
+        <v>595.2665433041217</v>
       </c>
       <c r="O33" t="n">
-        <v>522.1083547899991</v>
+        <v>413.0939472765582</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.58690159427576</v>
+        <v>96.58690159427582</v>
       </c>
       <c r="K34" t="n">
         <v>274.2035395227767</v>
@@ -37242,10 +37242,10 @@
         <v>379.996115808209</v>
       </c>
       <c r="P34" t="n">
-        <v>304.9089205376306</v>
+        <v>304.9089205376307</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.3176474499553</v>
+        <v>134.3176474499554</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>137.1106427695999</v>
       </c>
       <c r="K36" t="n">
         <v>313.2881945540299</v>
       </c>
       <c r="L36" t="n">
-        <v>468.0450853537025</v>
+        <v>359.0306778402617</v>
       </c>
       <c r="M36" t="n">
         <v>565.7389304405049</v>
@@ -37400,7 +37400,7 @@
         <v>522.1083547899991</v>
       </c>
       <c r="P36" t="n">
-        <v>28.09623525615941</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>96.58690159427569</v>
+        <v>96.58690159427582</v>
       </c>
       <c r="K37" t="n">
-        <v>274.2035395227766</v>
+        <v>274.2035395227767</v>
       </c>
       <c r="L37" t="n">
-        <v>400.1628603277803</v>
+        <v>400.1628603277804</v>
       </c>
       <c r="M37" t="n">
-        <v>431.0858461943906</v>
+        <v>431.0858461943907</v>
       </c>
       <c r="N37" t="n">
-        <v>426.9041697246189</v>
+        <v>426.904169724619</v>
       </c>
       <c r="O37" t="n">
-        <v>379.9961158082089</v>
+        <v>379.996115808209</v>
       </c>
       <c r="P37" t="n">
-        <v>304.9089205376306</v>
+        <v>304.9089205376307</v>
       </c>
       <c r="Q37" t="n">
-        <v>134.3176474499552</v>
+        <v>134.3176474499554</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>137.1106427695999</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>313.2881945540299</v>
       </c>
       <c r="L39" t="n">
         <v>468.0450853537025</v>
@@ -37634,13 +37634,13 @@
         <v>595.2665433041217</v>
       </c>
       <c r="O39" t="n">
-        <v>247.3449696106246</v>
+        <v>413.0939472765587</v>
       </c>
       <c r="P39" t="n">
-        <v>399.5096348639378</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>216.6381801256261</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>96.5869015942757</v>
+        <v>96.58690159427576</v>
       </c>
       <c r="K40" t="n">
-        <v>274.2035395227766</v>
+        <v>274.2035395227767</v>
       </c>
       <c r="L40" t="n">
-        <v>400.1628603277803</v>
+        <v>400.1628603277804</v>
       </c>
       <c r="M40" t="n">
-        <v>431.0858461943906</v>
+        <v>431.0858461943907</v>
       </c>
       <c r="N40" t="n">
-        <v>426.9041697246189</v>
+        <v>426.904169724619</v>
       </c>
       <c r="O40" t="n">
-        <v>379.9961158082089</v>
+        <v>379.996115808209</v>
       </c>
       <c r="P40" t="n">
         <v>304.9089205376306</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.3176474499552</v>
+        <v>134.3176474499553</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>444.1052203894712</v>
       </c>
       <c r="L41" t="n">
-        <v>588.2263032902233</v>
+        <v>588.2263032902251</v>
       </c>
       <c r="M41" t="n">
         <v>686.5044322367146</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.1106427695999</v>
+        <v>28.09623525615954</v>
       </c>
       <c r="K42" t="n">
         <v>313.2881945540299</v>
@@ -37868,7 +37868,7 @@
         <v>565.7389304405049</v>
       </c>
       <c r="N42" t="n">
-        <v>486.2521357906812</v>
+        <v>595.2665433041217</v>
       </c>
       <c r="O42" t="n">
         <v>522.1083547899991</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>96.5869015942757</v>
+        <v>96.58690159427576</v>
       </c>
       <c r="K43" t="n">
-        <v>274.2035395227766</v>
+        <v>274.2035395227767</v>
       </c>
       <c r="L43" t="n">
-        <v>400.1628603277803</v>
+        <v>400.1628603277804</v>
       </c>
       <c r="M43" t="n">
-        <v>431.0858461943906</v>
+        <v>431.0858461943907</v>
       </c>
       <c r="N43" t="n">
-        <v>426.9041697246189</v>
+        <v>426.904169724619</v>
       </c>
       <c r="O43" t="n">
-        <v>379.9961158082089</v>
+        <v>379.996115808209</v>
       </c>
       <c r="P43" t="n">
         <v>304.9089205376306</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.3176474499552</v>
+        <v>134.3176474499553</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>686.5044322367146</v>
       </c>
       <c r="N44" t="n">
-        <v>702.2732041724661</v>
+        <v>702.2732041724632</v>
       </c>
       <c r="O44" t="n">
         <v>649.6667117205279</v>
@@ -38096,13 +38096,13 @@
         <v>137.1106427695999</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>313.2881945540299</v>
       </c>
       <c r="L45" t="n">
-        <v>28.39288985205885</v>
+        <v>468.0450853537025</v>
       </c>
       <c r="M45" t="n">
-        <v>565.7389304405049</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>595.2665433041217</v>
@@ -38114,7 +38114,7 @@
         <v>399.5096348639378</v>
       </c>
       <c r="Q45" t="n">
-        <v>216.6381801256261</v>
+        <v>29.43672051045806</v>
       </c>
       <c r="R45" t="n">
         <v>27.77816755266898</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>96.5869015942757</v>
+        <v>96.58690159427576</v>
       </c>
       <c r="K46" t="n">
-        <v>274.2035395227766</v>
+        <v>274.2035395227767</v>
       </c>
       <c r="L46" t="n">
-        <v>400.1628603277803</v>
+        <v>400.1628603277804</v>
       </c>
       <c r="M46" t="n">
-        <v>431.0858461943906</v>
+        <v>431.0858461943907</v>
       </c>
       <c r="N46" t="n">
-        <v>426.9041697246189</v>
+        <v>426.904169724619</v>
       </c>
       <c r="O46" t="n">
-        <v>379.9961158082089</v>
+        <v>379.996115808209</v>
       </c>
       <c r="P46" t="n">
         <v>304.9089205376306</v>
       </c>
       <c r="Q46" t="n">
-        <v>134.3176474499552</v>
+        <v>134.3176474499553</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
